--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_5_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_5_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2097714.496019717</v>
+        <v>2059677.87983844</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>421727.3537779179</v>
+        <v>421727.3537779185</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7956703.63648181</v>
+        <v>7956703.636481812</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.293863480540836</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G2" t="n">
-        <v>14.85476540383092</v>
+        <v>263.735944136979</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0.6592771345624158</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>214.4088038782139</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.81774400304813</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D3" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>118.4394261448747</v>
       </c>
       <c r="F3" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W3" t="n">
         <v>249.98934675</v>
@@ -831,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>11.02353771150029</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>153.3024450198386</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>274.2838073416025</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>152.6431678852762</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V6" t="n">
         <v>231.9087310396551</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>166.8215914980454</v>
+        <v>145.8355658494302</v>
       </c>
       <c r="Y6" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>164.138716923775</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>274.2838073416025</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>7.293863480540836</v>
+        <v>240.9299003719209</v>
       </c>
       <c r="G8" t="n">
-        <v>14.85476540383092</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>76.930448786672</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>0.8189752490838361</v>
       </c>
       <c r="T9" t="n">
-        <v>181.6612946870253</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.907560127089</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>325.3930767845979</v>
       </c>
       <c r="I11" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,22 +1417,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>63.64170646647295</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S11" t="n">
         <v>177.493467653868</v>
       </c>
       <c r="T11" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V11" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W11" t="n">
-        <v>49.13443868643588</v>
+        <v>202.9875659083294</v>
       </c>
       <c r="X11" t="n">
         <v>370.8615991311694</v>
@@ -1460,16 +1460,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
-        <v>61.81771630496188</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
         <v>135.3570519053243</v>
       </c>
       <c r="H12" t="n">
-        <v>104.0288287853824</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>53.33473024000175</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>156.5880156630749</v>
       </c>
       <c r="T12" t="n">
-        <v>195.6974464808964</v>
+        <v>103.7758308662536</v>
       </c>
       <c r="U12" t="n">
         <v>224.6133508632724</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>110.6600380757661</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E13" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>40.51674845439572</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>190.2757276363059</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D14" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>383.1180357552875</v>
+        <v>311.9029136042847</v>
       </c>
       <c r="F14" t="n">
         <v>407.2938634805408</v>
@@ -1624,7 +1624,7 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H14" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,22 +1654,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>63.64170646647293</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1697,16 +1697,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F15" t="n">
-        <v>143.5062320835493</v>
+        <v>102.2787150142871</v>
       </c>
       <c r="G15" t="n">
         <v>135.3570519053243</v>
       </c>
       <c r="H15" t="n">
-        <v>104.0288287853824</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>63.56783007605712</v>
+        <v>63.56783007605711</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>53.33473024000175</v>
+        <v>53.33473024000173</v>
       </c>
       <c r="S15" t="n">
         <v>156.5880156630749</v>
@@ -1751,7 +1751,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X15" t="n">
-        <v>59.20528375383371</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y15" t="n">
         <v>203.671151418586</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>286.0218075870219</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>179.8519149894984</v>
       </c>
       <c r="W16" t="n">
-        <v>123.8960088696166</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C17" t="n">
         <v>366.9850956789426</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>200.1482602685789</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>63.64170646647295</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>177.493467653868</v>
@@ -1900,19 +1900,19 @@
         <v>217.5149286494106</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>347.3301362504765</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="18">
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165.3721256103448</v>
+        <v>20.11577975570017</v>
       </c>
       <c r="C18" t="n">
-        <v>25.76923807275637</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
         <v>146.1124235746456</v>
@@ -1940,10 +1940,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H18" t="n">
-        <v>104.0288287853824</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I18" t="n">
-        <v>63.56783007605712</v>
+        <v>63.56783007605711</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>53.33473024000175</v>
+        <v>53.33473024000173</v>
       </c>
       <c r="S18" t="n">
         <v>156.5880156630749</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>49.3539737549178</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2046,25 +2046,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>32.9952185368712</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.9363510669392</v>
+        <v>44.49327794197107</v>
       </c>
       <c r="W19" t="n">
-        <v>143.6597934514066</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,19 +2083,19 @@
         <v>383.716409991395</v>
       </c>
       <c r="C20" t="n">
-        <v>366.9850956789426</v>
+        <v>114.7248662930972</v>
       </c>
       <c r="D20" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>255.9899930309198</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
         <v>386.6870717512358</v>
@@ -2177,10 +2177,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H21" t="n">
-        <v>104.0288287853823</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2225,10 +2225,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
-        <v>122.7731138298909</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
-        <v>203.671151418586</v>
+        <v>162.4436343493239</v>
       </c>
     </row>
     <row r="22">
@@ -2283,31 +2283,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>143.4656465272897</v>
       </c>
       <c r="T22" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y22" t="n">
-        <v>215.3212831105828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D23" t="n">
-        <v>356.6047327545984</v>
+        <v>54.9596632788507</v>
       </c>
       <c r="E23" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>63.64170646647295</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S23" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>331.1971961741317</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="24">
@@ -2405,7 +2405,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
-        <v>114.8059166379117</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
         <v>143.5062320835493</v>
@@ -2414,10 +2414,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I24" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>53.33473024000175</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S24" t="n">
         <v>156.5880156630749</v>
@@ -2484,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>92.95288539512896</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2520,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>144.8522521137063</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>225.9462130081922</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>383.716409991395</v>
+        <v>236.1680215737059</v>
       </c>
       <c r="C26" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>329.2753512473848</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S26" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="27">
@@ -2639,19 +2639,19 @@
         <v>171.025583927401</v>
       </c>
       <c r="D27" t="n">
-        <v>146.1124235746456</v>
+        <v>0.8560777200009522</v>
       </c>
       <c r="E27" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F27" t="n">
-        <v>102.2787150142871</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
         <v>135.3570519053243</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I27" t="n">
         <v>63.56783007605712</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>53.33473024000175</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S27" t="n">
         <v>156.5880156630749</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.1749192313593</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2757,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>148.2796428708918</v>
+        <v>13.06659249781271</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,10 +2794,10 @@
         <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
-        <v>174.3791888875505</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>63.64170646647295</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V29" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>350.5301170005546</v>
+        <v>223.1318034811541</v>
       </c>
       <c r="X29" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="30">
@@ -2882,16 +2882,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F30" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>135.3570519053243</v>
       </c>
       <c r="H30" t="n">
-        <v>22.34031300679495</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>53.33473024000175</v>
+        <v>51.58461646890643</v>
       </c>
       <c r="S30" t="n">
         <v>156.5880156630749</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U31" t="n">
-        <v>156.5270964320437</v>
+        <v>79.549065525594</v>
       </c>
       <c r="V31" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3034,22 +3034,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
-        <v>407.2938634805408</v>
+        <v>271.2577384361347</v>
       </c>
       <c r="G32" t="n">
-        <v>402.1463023126827</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I32" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S32" t="n">
         <v>177.493467653868</v>
@@ -3085,10 +3085,10 @@
         <v>217.5149286494106</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V32" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3119,16 +3119,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>135.3570519053243</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>104.0288287853824</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I33" t="n">
-        <v>61.81771630496144</v>
+        <v>53.66853612673688</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>53.33473024000175</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S33" t="n">
         <v>156.5880156630749</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3231,16 +3231,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.9462130081922</v>
+        <v>192.4453244414664</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>150.9763849115751</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>305.828297850241</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
         <v>413.6097194764729</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S35" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>217.5149286494106</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>134.7118275604784</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3356,16 +3356,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
-        <v>133.606938134229</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.3570519053243</v>
       </c>
       <c r="H36" t="n">
-        <v>104.0288287853824</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>63.56783007605712</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>53.33473024000175</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S36" t="n">
         <v>156.5880156630749</v>
@@ -3426,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3468,25 +3468,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>228.6429550488754</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>20.17843049379446</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>135.5206472640551</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I38" t="n">
-        <v>157.2246747536534</v>
+        <v>21.93705946587855</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>251.3781599023558</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W38" t="n">
         <v>350.5301170005546</v>
@@ -3590,10 +3590,10 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
-        <v>156.0334337071738</v>
+        <v>154.2833199360786</v>
       </c>
       <c r="F39" t="n">
-        <v>61.81771630496194</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>135.3570519053243</v>
@@ -3602,7 +3602,7 @@
         <v>104.0288287853823</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>94.30162065454441</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>148.2796428708918</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>228.6429550488756</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
         <v>366.9850956789426</v>
@@ -3748,10 +3748,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>63.64170646647294</v>
       </c>
       <c r="S41" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>110.7064162880423</v>
+        <v>209.0563443369087</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="42">
@@ -3827,16 +3827,16 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
-        <v>114.8059166379117</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>135.3570519053243</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I42" t="n">
         <v>63.56783007605712</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>53.33473024000174</v>
+        <v>51.58461646890643</v>
       </c>
       <c r="S42" t="n">
         <v>156.5880156630749</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>93.76848815852368</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>17.43275451522956</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U43" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
         <v>356.6047327545984</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>169.6896089714148</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,25 +4024,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S44" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>182.7400076940218</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.6870717512358</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S45" t="n">
         <v>156.5880156630749</v>
@@ -4115,7 +4115,7 @@
         <v>224.6133508632724</v>
       </c>
       <c r="V45" t="n">
-        <v>139.9871154250126</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
         <v>249.98934675</v>
@@ -4124,7 +4124,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
-        <v>203.671151418586</v>
+        <v>58.41480556394149</v>
       </c>
     </row>
     <row r="46">
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S46" t="n">
-        <v>177.8474706505777</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T46" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>261.6381735857468</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>252.2782741702153</v>
+        <v>566.0629355096959</v>
       </c>
       <c r="C2" t="n">
-        <v>252.2782741702153</v>
+        <v>566.0629355096959</v>
       </c>
       <c r="D2" t="n">
-        <v>252.2782741702153</v>
+        <v>566.0629355096959</v>
       </c>
       <c r="E2" t="n">
-        <v>252.2782741702153</v>
+        <v>566.0629355096959</v>
       </c>
       <c r="F2" t="n">
-        <v>244.9107353009821</v>
+        <v>289.0085846595923</v>
       </c>
       <c r="G2" t="n">
-        <v>229.9059217617589</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H2" t="n">
-        <v>229.9059217617589</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I2" t="n">
         <v>22.60864108688619</v>
@@ -4333,19 +4333,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K2" t="n">
-        <v>143.2410926494321</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L2" t="n">
-        <v>345.6915471007956</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M2" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N2" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O2" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P2" t="n">
         <v>1093.116282134284</v>
@@ -4354,28 +4354,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R2" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S2" t="n">
-        <v>745.907174392252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T2" t="n">
-        <v>745.907174392252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U2" t="n">
-        <v>745.907174392252</v>
+        <v>843.1172863597994</v>
       </c>
       <c r="V2" t="n">
-        <v>745.907174392252</v>
+        <v>843.1172863597994</v>
       </c>
       <c r="W2" t="n">
-        <v>529.3326250203188</v>
+        <v>843.1172863597994</v>
       </c>
       <c r="X2" t="n">
-        <v>529.3326250203188</v>
+        <v>843.1172863597994</v>
       </c>
       <c r="Y2" t="n">
-        <v>252.2782741702153</v>
+        <v>566.0629355096959</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>823.5927134542401</v>
+        <v>314.331603650233</v>
       </c>
       <c r="C3" t="n">
-        <v>650.8395983760572</v>
+        <v>141.5784885720502</v>
       </c>
       <c r="D3" t="n">
-        <v>503.251291735001</v>
+        <v>141.5784885720502</v>
       </c>
       <c r="E3" t="n">
-        <v>503.251291735001</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F3" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G3" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H3" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I3" t="n">
         <v>21.9427045873282</v>
@@ -4412,10 +4412,10 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K3" t="n">
-        <v>29.3360154338131</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L3" t="n">
-        <v>277.4136198757311</v>
+        <v>274.3046529787421</v>
       </c>
       <c r="M3" t="n">
         <v>545.8456222469285</v>
@@ -4433,28 +4433,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R3" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S3" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T3" t="n">
-        <v>1097.13522936641</v>
+        <v>801.0973387912989</v>
       </c>
       <c r="U3" t="n">
-        <v>1097.13522936641</v>
+        <v>801.0973387912989</v>
       </c>
       <c r="V3" t="n">
-        <v>1097.13522936641</v>
+        <v>566.8460953168997</v>
       </c>
       <c r="W3" t="n">
-        <v>844.6207376997432</v>
+        <v>314.331603650233</v>
       </c>
       <c r="X3" t="n">
-        <v>844.6207376997432</v>
+        <v>314.331603650233</v>
       </c>
       <c r="Y3" t="n">
-        <v>844.6207376997432</v>
+        <v>314.331603650233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="G4" t="n">
-        <v>21.9427045873282</v>
+        <v>33.07759116460122</v>
       </c>
       <c r="H4" t="n">
         <v>21.9427045873282</v>
@@ -4518,22 +4518,22 @@
         <v>202.6630345283467</v>
       </c>
       <c r="T4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>468.8528235421485</v>
+        <v>314.6678054762129</v>
       </c>
       <c r="C5" t="n">
-        <v>468.8528235421485</v>
+        <v>314.6678054762129</v>
       </c>
       <c r="D5" t="n">
-        <v>468.8528235421485</v>
+        <v>314.6678054762129</v>
       </c>
       <c r="E5" t="n">
-        <v>314.0018689766549</v>
+        <v>314.6678054762129</v>
       </c>
       <c r="F5" t="n">
-        <v>36.94751812655136</v>
+        <v>37.61345462610935</v>
       </c>
       <c r="G5" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H5" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I5" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J5" t="n">
         <v>21.9427045873282</v>
@@ -4606,13 +4606,13 @@
         <v>745.907174392252</v>
       </c>
       <c r="W5" t="n">
-        <v>745.907174392252</v>
+        <v>468.8528235421485</v>
       </c>
       <c r="X5" t="n">
-        <v>745.907174392252</v>
+        <v>314.6678054762129</v>
       </c>
       <c r="Y5" t="n">
-        <v>745.907174392252</v>
+        <v>314.6678054762129</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J6" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K6" t="n">
-        <v>168.577974491964</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L6" t="n">
-        <v>416.655578933882</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M6" t="n">
-        <v>549.5069725377944</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N6" t="n">
-        <v>549.5069725377944</v>
+        <v>813.1022475656191</v>
       </c>
       <c r="O6" t="n">
-        <v>817.386591515115</v>
+        <v>1080.98186654294</v>
       </c>
       <c r="P6" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q6" t="n">
         <v>1097.13522936641</v>
@@ -4679,16 +4679,16 @@
         <v>630.4290419169106</v>
       </c>
       <c r="U6" t="n">
-        <v>630.4290419169106</v>
+        <v>403.5026004348891</v>
       </c>
       <c r="V6" t="n">
-        <v>396.1777984425115</v>
+        <v>169.25135696049</v>
       </c>
       <c r="W6" t="n">
-        <v>396.1777984425115</v>
+        <v>169.25135696049</v>
       </c>
       <c r="X6" t="n">
-        <v>227.6711403636777</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y6" t="n">
         <v>21.9427045873282</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="C7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="D7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="E7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="F7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="G7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="H7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="I7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="J7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K7" t="n">
         <v>21.9427045873282</v>
@@ -4764,13 +4764,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="W7" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="X7" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="Y7" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>599.0896951955497</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="C8" t="n">
-        <v>322.0353443454461</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="D8" t="n">
-        <v>44.98099349534252</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="E8" t="n">
-        <v>44.98099349534252</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="F8" t="n">
-        <v>37.61345462610935</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="G8" t="n">
         <v>22.60864108688619</v>
@@ -4828,28 +4828,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R8" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S8" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T8" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U8" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V8" t="n">
-        <v>876.1440460456532</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W8" t="n">
-        <v>876.1440460456532</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="X8" t="n">
-        <v>876.1440460456532</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="Y8" t="n">
-        <v>599.0896951955497</v>
+        <v>820.0808785163064</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.9427045873282</v>
+        <v>833.6139358103292</v>
       </c>
       <c r="C9" t="n">
-        <v>21.9427045873282</v>
+        <v>660.8608207321463</v>
       </c>
       <c r="D9" t="n">
-        <v>21.9427045873282</v>
+        <v>660.8608207321463</v>
       </c>
       <c r="E9" t="n">
-        <v>21.9427045873282</v>
+        <v>503.251291735001</v>
       </c>
       <c r="F9" t="n">
-        <v>21.9427045873282</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="G9" t="n">
-        <v>21.9427045873282</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H9" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I9" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J9" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K9" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L9" t="n">
-        <v>277.4136198757311</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M9" t="n">
-        <v>548.9545891439176</v>
+        <v>359.1441712859057</v>
       </c>
       <c r="N9" t="n">
-        <v>820.4955584121041</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O9" t="n">
-        <v>820.4955584121041</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P9" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q9" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R9" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S9" t="n">
-        <v>1097.13522936641</v>
+        <v>1000.65648693189</v>
       </c>
       <c r="T9" t="n">
-        <v>913.6389721067884</v>
+        <v>1000.65648693189</v>
       </c>
       <c r="U9" t="n">
-        <v>686.7125306247669</v>
+        <v>1000.65648693189</v>
       </c>
       <c r="V9" t="n">
-        <v>686.7125306247669</v>
+        <v>1000.65648693189</v>
       </c>
       <c r="W9" t="n">
-        <v>434.1980389581003</v>
+        <v>1000.65648693189</v>
       </c>
       <c r="X9" t="n">
-        <v>227.6711403636777</v>
+        <v>1000.65648693189</v>
       </c>
       <c r="Y9" t="n">
-        <v>21.9427045873282</v>
+        <v>1000.65648693189</v>
       </c>
     </row>
     <row r="10">
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.9427045873282</v>
+        <v>172.4533778343175</v>
       </c>
       <c r="C10" t="n">
-        <v>21.9427045873282</v>
+        <v>172.4533778343175</v>
       </c>
       <c r="D10" t="n">
         <v>21.9427045873282</v>
@@ -4983,31 +4983,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q10" t="n">
-        <v>202.6630345283467</v>
+        <v>172.4533778343175</v>
       </c>
       <c r="R10" t="n">
-        <v>202.6630345283467</v>
+        <v>172.4533778343175</v>
       </c>
       <c r="S10" t="n">
-        <v>202.6630345283467</v>
+        <v>172.4533778343175</v>
       </c>
       <c r="T10" t="n">
-        <v>202.6630345283467</v>
+        <v>172.4533778343175</v>
       </c>
       <c r="U10" t="n">
-        <v>202.6630345283467</v>
+        <v>172.4533778343175</v>
       </c>
       <c r="V10" t="n">
-        <v>202.6630345283467</v>
+        <v>172.4533778343175</v>
       </c>
       <c r="W10" t="n">
-        <v>202.6630345283467</v>
+        <v>172.4533778343175</v>
       </c>
       <c r="X10" t="n">
-        <v>21.9427045873282</v>
+        <v>172.4533778343175</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.9427045873282</v>
+        <v>172.4533778343175</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1316.19850650538</v>
+        <v>1126.586023197463</v>
       </c>
       <c r="C11" t="n">
-        <v>1316.19850650538</v>
+        <v>1126.586023197463</v>
       </c>
       <c r="D11" t="n">
-        <v>955.9917057431599</v>
+        <v>766.3792224352419</v>
       </c>
       <c r="E11" t="n">
-        <v>955.9917057431599</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="F11" t="n">
-        <v>955.9917057431599</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="G11" t="n">
-        <v>538.2041103123792</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="H11" t="n">
-        <v>209.5242347723813</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I11" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J11" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370291</v>
       </c>
       <c r="K11" t="n">
-        <v>432.7629010724811</v>
+        <v>432.7629010724806</v>
       </c>
       <c r="L11" t="n">
-        <v>829.7261648535821</v>
+        <v>829.7261648535817</v>
       </c>
       <c r="M11" t="n">
-        <v>1286.636576300462</v>
+        <v>1286.636576300461</v>
       </c>
       <c r="N11" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O11" t="n">
         <v>2113.071138623965</v>
@@ -5071,22 +5071,22 @@
         <v>2292.00071659582</v>
       </c>
       <c r="T11" t="n">
-        <v>2072.288667455001</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="U11" t="n">
-        <v>2072.288667455001</v>
+        <v>2038.083383361117</v>
       </c>
       <c r="V11" t="n">
-        <v>1740.436928543366</v>
+        <v>1706.231644449482</v>
       </c>
       <c r="W11" t="n">
-        <v>1690.806182395451</v>
+        <v>1501.193699087533</v>
       </c>
       <c r="X11" t="n">
-        <v>1316.19850650538</v>
+        <v>1126.586023197463</v>
       </c>
       <c r="Y11" t="n">
-        <v>1316.19850650538</v>
+        <v>1126.586023197463</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>832.9084402786798</v>
+        <v>979.6320219500381</v>
       </c>
       <c r="C12" t="n">
-        <v>660.1553252004969</v>
+        <v>806.8789068718552</v>
       </c>
       <c r="D12" t="n">
-        <v>512.5670185594408</v>
+        <v>659.290600230799</v>
       </c>
       <c r="E12" t="n">
-        <v>354.9574895622956</v>
+        <v>501.6810712336537</v>
       </c>
       <c r="F12" t="n">
-        <v>292.5153518805159</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G12" t="n">
-        <v>155.791057026653</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="H12" t="n">
-        <v>50.71143199091319</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I12" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J12" t="n">
-        <v>120.4127199202217</v>
+        <v>101.5931163690881</v>
       </c>
       <c r="K12" t="n">
-        <v>366.1489360814929</v>
+        <v>347.3293325303594</v>
       </c>
       <c r="L12" t="n">
-        <v>757.4212114061545</v>
+        <v>738.601607855021</v>
       </c>
       <c r="M12" t="n">
-        <v>1266.817695663801</v>
+        <v>1247.998092112667</v>
       </c>
       <c r="N12" t="n">
-        <v>1620.913172155677</v>
+        <v>1786.275517555499</v>
       </c>
       <c r="O12" t="n">
-        <v>2045.703836711752</v>
+        <v>2211.066182111574</v>
       </c>
       <c r="P12" t="n">
-        <v>2370.209254145837</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="Q12" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R12" t="n">
-        <v>2481.698134656769</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S12" t="n">
-        <v>2323.528421865784</v>
+        <v>2377.401886754675</v>
       </c>
       <c r="T12" t="n">
-        <v>2125.854233501242</v>
+        <v>2272.5778151726</v>
       </c>
       <c r="U12" t="n">
-        <v>1898.972060912078</v>
+        <v>2045.695642583436</v>
       </c>
       <c r="V12" t="n">
-        <v>1664.720817437679</v>
+        <v>1811.444399109037</v>
       </c>
       <c r="W12" t="n">
-        <v>1412.206325771012</v>
+        <v>1558.92990744237</v>
       </c>
       <c r="X12" t="n">
-        <v>1205.67942717659</v>
+        <v>1352.403008847948</v>
       </c>
       <c r="Y12" t="n">
-        <v>999.9509914002402</v>
+        <v>1146.674573071598</v>
       </c>
     </row>
     <row r="13">
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>346.8060234888967</v>
+        <v>201.2221052379024</v>
       </c>
       <c r="C13" t="n">
-        <v>346.8060234888967</v>
+        <v>201.2221052379024</v>
       </c>
       <c r="D13" t="n">
-        <v>346.8060234888967</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E13" t="n">
-        <v>198.3468071523319</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F13" t="n">
         <v>50.71143199091319</v>
@@ -5211,40 +5211,40 @@
         <v>355.9743406206215</v>
       </c>
       <c r="N13" t="n">
-        <v>494.2381528619503</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O13" t="n">
-        <v>606.6105655578848</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P13" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q13" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R13" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S13" t="n">
-        <v>679.5420961591334</v>
+        <v>638.6160876193399</v>
       </c>
       <c r="T13" t="n">
-        <v>679.5420961591334</v>
+        <v>638.6160876193399</v>
       </c>
       <c r="U13" t="n">
-        <v>679.5420961591334</v>
+        <v>638.6160876193399</v>
       </c>
       <c r="V13" t="n">
-        <v>679.5420961591334</v>
+        <v>383.1248239153608</v>
       </c>
       <c r="W13" t="n">
-        <v>679.5420961591334</v>
+        <v>383.1248239153608</v>
       </c>
       <c r="X13" t="n">
-        <v>679.5420961591334</v>
+        <v>383.1248239153608</v>
       </c>
       <c r="Y13" t="n">
-        <v>458.5838397270443</v>
+        <v>383.1248239153608</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2147.979266221018</v>
+        <v>1565.652434253783</v>
       </c>
       <c r="C14" t="n">
-        <v>1955.781561537881</v>
+        <v>1194.960418416467</v>
       </c>
       <c r="D14" t="n">
-        <v>1595.57476077566</v>
+        <v>1194.960418416467</v>
       </c>
       <c r="E14" t="n">
-        <v>1208.586845871329</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="F14" t="n">
-        <v>797.1789029616918</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G14" t="n">
-        <v>379.3913075309111</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H14" t="n">
         <v>50.71143199091319</v>
@@ -5281,7 +5281,7 @@
         <v>154.6737472370294</v>
       </c>
       <c r="K14" t="n">
-        <v>432.7629010724811</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L14" t="n">
         <v>829.7261648535821</v>
@@ -5302,28 +5302,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R14" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S14" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T14" t="n">
-        <v>2535.571599545659</v>
+        <v>2251.574998418504</v>
       </c>
       <c r="U14" t="n">
-        <v>2535.571599545659</v>
+        <v>2251.574998418504</v>
       </c>
       <c r="V14" t="n">
-        <v>2535.571599545659</v>
+        <v>1919.723259506869</v>
       </c>
       <c r="W14" t="n">
-        <v>2535.571599545659</v>
+        <v>1565.652434253783</v>
       </c>
       <c r="X14" t="n">
-        <v>2535.571599545659</v>
+        <v>1565.652434253783</v>
       </c>
       <c r="Y14" t="n">
-        <v>2535.571599545659</v>
+        <v>1565.652434253783</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C15" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D15" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E15" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F15" t="n">
-        <v>356.7252812502705</v>
+        <v>251.6456562145308</v>
       </c>
       <c r="G15" t="n">
-        <v>220.0009863964077</v>
+        <v>114.9213613606678</v>
       </c>
       <c r="H15" t="n">
-        <v>114.9213613606679</v>
+        <v>114.9213613606678</v>
       </c>
       <c r="I15" t="n">
         <v>50.71143199091319</v>
@@ -5360,22 +5360,22 @@
         <v>50.71143199091319</v>
       </c>
       <c r="K15" t="n">
-        <v>296.4476481521845</v>
+        <v>181.9669871305368</v>
       </c>
       <c r="L15" t="n">
-        <v>687.719923476846</v>
+        <v>573.2392624551985</v>
       </c>
       <c r="M15" t="n">
-        <v>1197.116407734492</v>
+        <v>1082.635746712845</v>
       </c>
       <c r="N15" t="n">
-        <v>1735.393833177324</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O15" t="n">
-        <v>2160.184497733399</v>
+        <v>2045.703836711751</v>
       </c>
       <c r="P15" t="n">
-        <v>2484.689915167484</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q15" t="n">
         <v>2535.571599545659</v>
@@ -5399,10 +5399,10 @@
         <v>1412.206325771012</v>
       </c>
       <c r="X15" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y15" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50.71143199091319</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="C16" t="n">
-        <v>50.71143199091319</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="D16" t="n">
-        <v>50.71143199091319</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="E16" t="n">
-        <v>50.71143199091319</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="F16" t="n">
-        <v>50.71143199091319</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="G16" t="n">
-        <v>50.71143199091319</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="H16" t="n">
         <v>50.71143199091319</v>
@@ -5445,43 +5445,43 @@
         <v>219.6093352368815</v>
       </c>
       <c r="M16" t="n">
-        <v>355.9743406206215</v>
+        <v>355.9743406206216</v>
       </c>
       <c r="N16" t="n">
-        <v>494.2381528619503</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O16" t="n">
-        <v>606.6105655578848</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P16" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q16" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R16" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S16" t="n">
-        <v>464.7698324521642</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T16" t="n">
-        <v>464.7698324521642</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U16" t="n">
-        <v>175.8589156975966</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V16" t="n">
-        <v>175.8589156975966</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="W16" t="n">
-        <v>50.71143199091319</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="X16" t="n">
-        <v>50.71143199091319</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="Y16" t="n">
-        <v>50.71143199091319</v>
+        <v>208.9625784050725</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>781.6102485904496</v>
+        <v>983.7802084577011</v>
       </c>
       <c r="C17" t="n">
-        <v>410.9182327531338</v>
+        <v>613.0881926203853</v>
       </c>
       <c r="D17" t="n">
-        <v>50.71143199091319</v>
+        <v>252.8813918581646</v>
       </c>
       <c r="E17" t="n">
-        <v>50.71143199091319</v>
+        <v>252.8813918581646</v>
       </c>
       <c r="F17" t="n">
         <v>50.71143199091319</v>
@@ -5515,13 +5515,13 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J17" t="n">
-        <v>154.6737472370293</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K17" t="n">
-        <v>432.7629010724809</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L17" t="n">
-        <v>829.7261648535823</v>
+        <v>829.7261648535821</v>
       </c>
       <c r="M17" t="n">
         <v>1286.636576300462</v>
@@ -5539,28 +5539,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R17" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S17" t="n">
-        <v>2292.00071659582</v>
+        <v>2356.285268582156</v>
       </c>
       <c r="T17" t="n">
-        <v>2072.288667455001</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="U17" t="n">
-        <v>1818.371334220299</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="V17" t="n">
-        <v>1486.519595308663</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="W17" t="n">
-        <v>1132.448770055577</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="X17" t="n">
-        <v>781.6102485904496</v>
+        <v>1761.965543551268</v>
       </c>
       <c r="Y17" t="n">
-        <v>781.6102485904496</v>
+        <v>1371.372541782343</v>
       </c>
     </row>
     <row r="18">
@@ -5570,7 +5570,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>832.9084402786798</v>
+        <v>979.6320219500381</v>
       </c>
       <c r="C18" t="n">
         <v>806.8789068718552</v>
@@ -5585,10 +5585,10 @@
         <v>356.7252812502705</v>
       </c>
       <c r="G18" t="n">
-        <v>220.0009863964077</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="H18" t="n">
-        <v>114.9213613606679</v>
+        <v>114.9213613606678</v>
       </c>
       <c r="I18" t="n">
         <v>50.71143199091319</v>
@@ -5597,19 +5597,19 @@
         <v>120.4127199202217</v>
       </c>
       <c r="K18" t="n">
-        <v>366.1489360814929</v>
+        <v>181.9669871305368</v>
       </c>
       <c r="L18" t="n">
-        <v>757.4212114061545</v>
+        <v>573.2392624551985</v>
       </c>
       <c r="M18" t="n">
-        <v>1266.817695663801</v>
+        <v>1082.635746712845</v>
       </c>
       <c r="N18" t="n">
-        <v>1805.095121106633</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O18" t="n">
-        <v>2045.703836711752</v>
+        <v>2045.703836711751</v>
       </c>
       <c r="P18" t="n">
         <v>2370.209254145837</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.71143199091319</v>
+        <v>269.590751875883</v>
       </c>
       <c r="C19" t="n">
-        <v>50.71143199091319</v>
+        <v>100.5639307332544</v>
       </c>
       <c r="D19" t="n">
-        <v>50.71143199091319</v>
+        <v>100.5639307332544</v>
       </c>
       <c r="E19" t="n">
-        <v>50.71143199091319</v>
+        <v>100.5639307332544</v>
       </c>
       <c r="F19" t="n">
-        <v>50.71143199091319</v>
+        <v>100.5639307332544</v>
       </c>
       <c r="G19" t="n">
-        <v>50.71143199091319</v>
+        <v>100.5639307332544</v>
       </c>
       <c r="H19" t="n">
-        <v>50.71143199091319</v>
+        <v>100.5639307332544</v>
       </c>
       <c r="I19" t="n">
-        <v>50.71143199091319</v>
+        <v>100.5639307332544</v>
       </c>
       <c r="J19" t="n">
         <v>50.71143199091319</v>
@@ -5682,43 +5682,43 @@
         <v>219.6093352368815</v>
       </c>
       <c r="M19" t="n">
-        <v>355.9743406206215</v>
+        <v>355.9743406206216</v>
       </c>
       <c r="N19" t="n">
-        <v>494.2381528619503</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O19" t="n">
-        <v>606.6105655578848</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P19" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q19" t="n">
-        <v>679.5420961591334</v>
+        <v>646.2135925865364</v>
       </c>
       <c r="R19" t="n">
-        <v>679.5420961591334</v>
+        <v>496.4361755452314</v>
       </c>
       <c r="S19" t="n">
-        <v>679.5420961591334</v>
+        <v>496.4361755452314</v>
       </c>
       <c r="T19" t="n">
-        <v>451.3135981710604</v>
+        <v>496.4361755452314</v>
       </c>
       <c r="U19" t="n">
-        <v>451.3135981710604</v>
+        <v>496.4361755452314</v>
       </c>
       <c r="V19" t="n">
-        <v>195.8223344670815</v>
+        <v>451.4934705533415</v>
       </c>
       <c r="W19" t="n">
-        <v>50.71143199091319</v>
+        <v>451.4934705533415</v>
       </c>
       <c r="X19" t="n">
-        <v>50.71143199091319</v>
+        <v>451.4934705533415</v>
       </c>
       <c r="Y19" t="n">
-        <v>50.71143199091319</v>
+        <v>451.4934705533415</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>781.6102485904496</v>
+        <v>1382.778588562023</v>
       </c>
       <c r="C20" t="n">
-        <v>410.9182327531338</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="D20" t="n">
-        <v>50.71143199091319</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="E20" t="n">
-        <v>50.71143199091319</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="F20" t="n">
-        <v>50.71143199091319</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G20" t="n">
         <v>50.71143199091319</v>
@@ -5752,19 +5752,19 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J20" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K20" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L20" t="n">
-        <v>829.7261648535822</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M20" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N20" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O20" t="n">
         <v>2113.071138623965</v>
@@ -5776,28 +5776,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R20" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S20" t="n">
-        <v>2292.00071659582</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T20" t="n">
-        <v>2072.288667455001</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="U20" t="n">
-        <v>1818.371334220299</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="V20" t="n">
-        <v>1818.371334220299</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="W20" t="n">
-        <v>1559.795583684016</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="X20" t="n">
-        <v>1559.795583684016</v>
+        <v>2160.963923655589</v>
       </c>
       <c r="Y20" t="n">
-        <v>1169.202581915091</v>
+        <v>1770.370921886664</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>915.4220925802833</v>
+        <v>874.5523969142982</v>
       </c>
       <c r="C21" t="n">
-        <v>742.6689775021005</v>
+        <v>701.7992818361154</v>
       </c>
       <c r="D21" t="n">
-        <v>595.0806708610443</v>
+        <v>554.2109751950592</v>
       </c>
       <c r="E21" t="n">
-        <v>437.471141863899</v>
+        <v>396.6014461979139</v>
       </c>
       <c r="F21" t="n">
-        <v>292.5153518805158</v>
+        <v>251.6456562145308</v>
       </c>
       <c r="G21" t="n">
-        <v>155.7910570266529</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="H21" t="n">
-        <v>50.71143199091319</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I21" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J21" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K21" t="n">
-        <v>296.4476481521845</v>
+        <v>181.9669871305373</v>
       </c>
       <c r="L21" t="n">
-        <v>687.7199234768461</v>
+        <v>573.239262455199</v>
       </c>
       <c r="M21" t="n">
         <v>1082.635746712845</v>
@@ -5873,10 +5873,10 @@
         <v>1412.206325771012</v>
       </c>
       <c r="X21" t="n">
-        <v>1288.193079478193</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y21" t="n">
-        <v>1082.464643701844</v>
+        <v>1041.594948035859</v>
       </c>
     </row>
     <row r="22">
@@ -5931,28 +5931,28 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q22" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R22" t="n">
-        <v>496.4361755452314</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S22" t="n">
-        <v>496.4361755452314</v>
+        <v>534.6273016871237</v>
       </c>
       <c r="T22" t="n">
-        <v>268.2076775571585</v>
+        <v>534.6273016871237</v>
       </c>
       <c r="U22" t="n">
-        <v>268.2076775571585</v>
+        <v>534.6273016871237</v>
       </c>
       <c r="V22" t="n">
-        <v>268.2076775571585</v>
+        <v>279.1360379831448</v>
       </c>
       <c r="W22" t="n">
-        <v>268.2076775571585</v>
+        <v>279.1360379831448</v>
       </c>
       <c r="X22" t="n">
-        <v>268.2076775571585</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y22" t="n">
         <v>50.71143199091319</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>797.9061476574645</v>
+        <v>1693.101712465756</v>
       </c>
       <c r="C23" t="n">
-        <v>797.9061476574645</v>
+        <v>1322.409696628441</v>
       </c>
       <c r="D23" t="n">
-        <v>437.699346895244</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="E23" t="n">
-        <v>50.71143199091319</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="F23" t="n">
-        <v>50.71143199091319</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G23" t="n">
         <v>50.71143199091319</v>
@@ -5992,16 +5992,16 @@
         <v>154.6737472370294</v>
       </c>
       <c r="K23" t="n">
-        <v>432.7629010724811</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L23" t="n">
-        <v>829.7261648535821</v>
+        <v>829.7261648535822</v>
       </c>
       <c r="M23" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N23" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O23" t="n">
         <v>2113.071138623965</v>
@@ -6016,25 +6016,25 @@
         <v>2471.287047559323</v>
       </c>
       <c r="S23" t="n">
-        <v>2292.00071659582</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T23" t="n">
-        <v>2072.288667455001</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U23" t="n">
-        <v>1818.371334220299</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="V23" t="n">
-        <v>1486.519595308663</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="W23" t="n">
-        <v>1132.448770055577</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="X23" t="n">
-        <v>797.9061476574645</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="Y23" t="n">
-        <v>797.9061476574645</v>
+        <v>2080.694045790398</v>
       </c>
     </row>
     <row r="24">
@@ -6053,16 +6053,16 @@
         <v>512.5670185594408</v>
       </c>
       <c r="E24" t="n">
-        <v>396.6014461979139</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F24" t="n">
-        <v>251.6456562145308</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G24" t="n">
-        <v>114.9213613606679</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H24" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I24" t="n">
         <v>50.71143199091319</v>
@@ -6074,19 +6074,19 @@
         <v>366.1489360814929</v>
       </c>
       <c r="L24" t="n">
-        <v>757.4212114061545</v>
+        <v>738.601607855021</v>
       </c>
       <c r="M24" t="n">
-        <v>1266.817695663801</v>
+        <v>1247.998092112667</v>
       </c>
       <c r="N24" t="n">
-        <v>1805.095121106633</v>
+        <v>1786.275517555499</v>
       </c>
       <c r="O24" t="n">
-        <v>2045.703836711752</v>
+        <v>2211.066182111574</v>
       </c>
       <c r="P24" t="n">
-        <v>2370.209254145837</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="Q24" t="n">
         <v>2535.571599545659</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50.71143199091319</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="C25" t="n">
-        <v>50.71143199091319</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="D25" t="n">
-        <v>50.71143199091319</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="E25" t="n">
-        <v>50.71143199091319</v>
+        <v>302.8543818344957</v>
       </c>
       <c r="F25" t="n">
-        <v>50.71143199091319</v>
+        <v>302.8543818344957</v>
       </c>
       <c r="G25" t="n">
-        <v>50.71143199091319</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="H25" t="n">
         <v>50.71143199091319</v>
@@ -6159,40 +6159,40 @@
         <v>355.9743406206215</v>
       </c>
       <c r="N25" t="n">
-        <v>494.2381528619503</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O25" t="n">
-        <v>606.6105655578848</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P25" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q25" t="n">
-        <v>646.2135925865362</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R25" t="n">
-        <v>646.2135925865362</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S25" t="n">
-        <v>499.8981864110752</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T25" t="n">
-        <v>271.6696884230023</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="U25" t="n">
-        <v>271.6696884230023</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="V25" t="n">
-        <v>271.6696884230023</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="W25" t="n">
-        <v>271.6696884230023</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="X25" t="n">
-        <v>271.6696884230023</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="Y25" t="n">
-        <v>50.71143199091319</v>
+        <v>451.3135981710606</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1140.992727628908</v>
+        <v>781.6102485904496</v>
       </c>
       <c r="C26" t="n">
-        <v>770.3007117915923</v>
+        <v>410.9182327531338</v>
       </c>
       <c r="D26" t="n">
-        <v>770.3007117915923</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E26" t="n">
-        <v>383.3127968872615</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F26" t="n">
-        <v>383.3127968872615</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G26" t="n">
         <v>50.71143199091319</v>
@@ -6226,13 +6226,13 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J26" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K26" t="n">
-        <v>432.7629010724811</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L26" t="n">
-        <v>829.7261648535821</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M26" t="n">
         <v>1286.636576300462</v>
@@ -6250,28 +6250,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R26" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S26" t="n">
-        <v>2356.285268582156</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T26" t="n">
-        <v>2136.573219441338</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U26" t="n">
-        <v>1882.655886206635</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="V26" t="n">
-        <v>1882.655886206635</v>
+        <v>2139.435308647688</v>
       </c>
       <c r="W26" t="n">
-        <v>1528.58506095355</v>
+        <v>1785.364483394602</v>
       </c>
       <c r="X26" t="n">
-        <v>1528.58506095355</v>
+        <v>1410.756807504532</v>
       </c>
       <c r="Y26" t="n">
-        <v>1528.58506095355</v>
+        <v>1020.163805735607</v>
       </c>
     </row>
     <row r="27">
@@ -6287,16 +6287,16 @@
         <v>660.1553252004969</v>
       </c>
       <c r="D27" t="n">
-        <v>512.5670185594408</v>
+        <v>659.290600230799</v>
       </c>
       <c r="E27" t="n">
-        <v>354.9574895622956</v>
+        <v>501.6810712336537</v>
       </c>
       <c r="F27" t="n">
-        <v>251.6456562145308</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G27" t="n">
-        <v>114.9213613606679</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="H27" t="n">
         <v>114.9213613606679</v>
@@ -6305,25 +6305,25 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J27" t="n">
-        <v>120.4127199202217</v>
+        <v>101.5931163690881</v>
       </c>
       <c r="K27" t="n">
-        <v>366.1489360814929</v>
+        <v>347.3293325303594</v>
       </c>
       <c r="L27" t="n">
-        <v>573.239262455199</v>
+        <v>738.601607855021</v>
       </c>
       <c r="M27" t="n">
-        <v>1082.635746712845</v>
+        <v>1247.998092112667</v>
       </c>
       <c r="N27" t="n">
-        <v>1620.913172155677</v>
+        <v>1786.275517555499</v>
       </c>
       <c r="O27" t="n">
-        <v>2045.703836711752</v>
+        <v>2211.066182111574</v>
       </c>
       <c r="P27" t="n">
-        <v>2370.209254145837</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="Q27" t="n">
         <v>2535.571599545659</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>50.71143199091319</v>
+        <v>666.3435178785146</v>
       </c>
       <c r="C28" t="n">
-        <v>50.71143199091319</v>
+        <v>497.316696735886</v>
       </c>
       <c r="D28" t="n">
-        <v>50.71143199091319</v>
+        <v>346.8060234888967</v>
       </c>
       <c r="E28" t="n">
-        <v>50.71143199091319</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="F28" t="n">
         <v>50.71143199091319</v>
@@ -6396,40 +6396,40 @@
         <v>355.9743406206215</v>
       </c>
       <c r="N28" t="n">
-        <v>494.2381528619503</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O28" t="n">
-        <v>606.6105655578848</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P28" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q28" t="n">
-        <v>646.2135925865362</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R28" t="n">
-        <v>496.4361755452312</v>
+        <v>666.3435178785146</v>
       </c>
       <c r="S28" t="n">
-        <v>496.4361755452312</v>
+        <v>666.3435178785146</v>
       </c>
       <c r="T28" t="n">
-        <v>496.4361755452312</v>
+        <v>666.3435178785146</v>
       </c>
       <c r="U28" t="n">
-        <v>496.4361755452312</v>
+        <v>666.3435178785146</v>
       </c>
       <c r="V28" t="n">
-        <v>496.4361755452312</v>
+        <v>666.3435178785146</v>
       </c>
       <c r="W28" t="n">
-        <v>207.4537746488519</v>
+        <v>666.3435178785146</v>
       </c>
       <c r="X28" t="n">
-        <v>207.4537746488519</v>
+        <v>666.3435178785146</v>
       </c>
       <c r="Y28" t="n">
-        <v>207.4537746488519</v>
+        <v>666.3435178785146</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>803.4524250390716</v>
+        <v>839.1910432590097</v>
       </c>
       <c r="C29" t="n">
-        <v>803.4524250390716</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="D29" t="n">
-        <v>627.311830203162</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="E29" t="n">
-        <v>627.311830203162</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="F29" t="n">
-        <v>627.311830203162</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G29" t="n">
-        <v>209.5242347723813</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H29" t="n">
-        <v>209.5242347723813</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I29" t="n">
         <v>50.71143199091319</v>
@@ -6493,22 +6493,22 @@
         <v>2471.287047559323</v>
       </c>
       <c r="T29" t="n">
-        <v>2251.574998418504</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U29" t="n">
-        <v>2251.574998418504</v>
+        <v>2217.36971432462</v>
       </c>
       <c r="V29" t="n">
-        <v>1919.723259506869</v>
+        <v>2217.36971432462</v>
       </c>
       <c r="W29" t="n">
-        <v>1565.652434253783</v>
+        <v>1991.984054242647</v>
       </c>
       <c r="X29" t="n">
-        <v>1191.044758363713</v>
+        <v>1617.376378352576</v>
       </c>
       <c r="Y29" t="n">
-        <v>1191.044758363713</v>
+        <v>1226.783376583651</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>832.9084402786798</v>
+        <v>834.6762319666548</v>
       </c>
       <c r="C30" t="n">
-        <v>660.1553252004969</v>
+        <v>661.9231168884719</v>
       </c>
       <c r="D30" t="n">
-        <v>512.5670185594408</v>
+        <v>514.3348102474158</v>
       </c>
       <c r="E30" t="n">
-        <v>354.9574895622956</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="F30" t="n">
-        <v>210.0016995789124</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G30" t="n">
-        <v>73.27740472504951</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="H30" t="n">
-        <v>50.71143199091319</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I30" t="n">
         <v>50.71143199091319</v>
@@ -6548,46 +6548,46 @@
         <v>366.1489360814929</v>
       </c>
       <c r="L30" t="n">
-        <v>573.239262455199</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M30" t="n">
-        <v>1082.635746712845</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N30" t="n">
-        <v>1620.913172155677</v>
+        <v>1805.095121106633</v>
       </c>
       <c r="O30" t="n">
-        <v>2045.703836711752</v>
+        <v>2229.885785662707</v>
       </c>
       <c r="P30" t="n">
-        <v>2370.209254145837</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="Q30" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R30" t="n">
-        <v>2481.698134656769</v>
+        <v>2483.465926344744</v>
       </c>
       <c r="S30" t="n">
-        <v>2323.528421865784</v>
+        <v>2325.296213553759</v>
       </c>
       <c r="T30" t="n">
-        <v>2125.854233501242</v>
+        <v>2127.622025189217</v>
       </c>
       <c r="U30" t="n">
-        <v>1898.972060912078</v>
+        <v>1900.739852600053</v>
       </c>
       <c r="V30" t="n">
-        <v>1664.720817437679</v>
+        <v>1666.488609125654</v>
       </c>
       <c r="W30" t="n">
-        <v>1412.206325771012</v>
+        <v>1413.974117458987</v>
       </c>
       <c r="X30" t="n">
-        <v>1205.67942717659</v>
+        <v>1207.447218864565</v>
       </c>
       <c r="Y30" t="n">
-        <v>999.9509914002402</v>
+        <v>1001.718783088215</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="C31" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="D31" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="E31" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="F31" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="G31" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="H31" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="I31" t="n">
         <v>50.71143199091319</v>
@@ -6633,40 +6633,40 @@
         <v>355.9743406206215</v>
       </c>
       <c r="N31" t="n">
-        <v>494.2381528619503</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O31" t="n">
-        <v>606.6105655578848</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P31" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q31" t="n">
-        <v>646.2135925865362</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R31" t="n">
-        <v>646.2135925865362</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S31" t="n">
-        <v>646.2135925865362</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T31" t="n">
-        <v>646.2135925865362</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="U31" t="n">
-        <v>488.1054143723505</v>
+        <v>370.9610067310666</v>
       </c>
       <c r="V31" t="n">
-        <v>232.6141506683716</v>
+        <v>370.9610067310666</v>
       </c>
       <c r="W31" t="n">
-        <v>232.6141506683716</v>
+        <v>370.9610067310666</v>
       </c>
       <c r="X31" t="n">
-        <v>232.6141506683716</v>
+        <v>370.9610067310666</v>
       </c>
       <c r="Y31" t="n">
-        <v>232.6141506683716</v>
+        <v>370.9610067310666</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1414.128478760776</v>
+        <v>1818.371334220299</v>
       </c>
       <c r="C32" t="n">
-        <v>1414.128478760776</v>
+        <v>1818.371334220299</v>
       </c>
       <c r="D32" t="n">
-        <v>1414.128478760776</v>
+        <v>1458.164533458078</v>
       </c>
       <c r="E32" t="n">
-        <v>1027.140563856446</v>
+        <v>1071.176618553747</v>
       </c>
       <c r="F32" t="n">
-        <v>615.7326209468083</v>
+        <v>797.1789029616918</v>
       </c>
       <c r="G32" t="n">
-        <v>209.5242347723813</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="H32" t="n">
-        <v>209.5242347723813</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I32" t="n">
-        <v>50.71143199091318</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J32" t="n">
-        <v>154.6737472370293</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K32" t="n">
-        <v>432.7629010724809</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L32" t="n">
-        <v>829.7261648535818</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M32" t="n">
-        <v>1286.636576300461</v>
+        <v>1286.636576300462</v>
       </c>
       <c r="N32" t="n">
         <v>1735.42310089741</v>
       </c>
       <c r="O32" t="n">
-        <v>2113.071138623964</v>
+        <v>2113.071138623965</v>
       </c>
       <c r="P32" t="n">
-        <v>2398.446208459428</v>
+        <v>2398.446208459429</v>
       </c>
       <c r="Q32" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R32" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S32" t="n">
-        <v>2356.285268582156</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="T32" t="n">
-        <v>2136.573219441337</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="U32" t="n">
-        <v>2136.573219441337</v>
+        <v>1818.371334220299</v>
       </c>
       <c r="V32" t="n">
-        <v>1804.721480529701</v>
+        <v>1818.371334220299</v>
       </c>
       <c r="W32" t="n">
-        <v>1804.721480529701</v>
+        <v>1818.371334220299</v>
       </c>
       <c r="X32" t="n">
-        <v>1804.721480529701</v>
+        <v>1818.371334220299</v>
       </c>
       <c r="Y32" t="n">
-        <v>1414.128478760776</v>
+        <v>1818.371334220299</v>
       </c>
     </row>
     <row r="33">
@@ -6755,58 +6755,58 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>832.9084402786793</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C33" t="n">
-        <v>660.1553252004965</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D33" t="n">
-        <v>512.5670185594404</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E33" t="n">
-        <v>354.9574895622951</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F33" t="n">
-        <v>354.9574895622951</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G33" t="n">
-        <v>218.2331947084322</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="H33" t="n">
-        <v>113.1535696726924</v>
+        <v>104.9220745431727</v>
       </c>
       <c r="I33" t="n">
-        <v>50.71143199091318</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J33" t="n">
-        <v>120.4127199202216</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K33" t="n">
-        <v>366.1489360814929</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L33" t="n">
-        <v>757.4212114061545</v>
+        <v>687.7199234768461</v>
       </c>
       <c r="M33" t="n">
-        <v>1266.817695663801</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N33" t="n">
-        <v>1805.095121106633</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O33" t="n">
-        <v>2045.703836711751</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P33" t="n">
-        <v>2370.209254145837</v>
+        <v>2484.689915167484</v>
       </c>
       <c r="Q33" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R33" t="n">
-        <v>2481.698134656768</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S33" t="n">
-        <v>2323.528421865783</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T33" t="n">
         <v>2125.854233501242</v>
@@ -6821,10 +6821,10 @@
         <v>1412.206325771012</v>
       </c>
       <c r="X33" t="n">
-        <v>1205.679427176589</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y33" t="n">
-        <v>999.9509914002398</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="34">
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>50.71143199091318</v>
+        <v>485.1528795515917</v>
       </c>
       <c r="C34" t="n">
-        <v>50.71143199091318</v>
+        <v>485.1528795515917</v>
       </c>
       <c r="D34" t="n">
-        <v>50.71143199091318</v>
+        <v>485.1528795515917</v>
       </c>
       <c r="E34" t="n">
-        <v>50.71143199091318</v>
+        <v>336.6936632150269</v>
       </c>
       <c r="F34" t="n">
-        <v>50.71143199091318</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="G34" t="n">
-        <v>50.71143199091318</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="H34" t="n">
-        <v>50.71143199091318</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="I34" t="n">
-        <v>50.71143199091318</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J34" t="n">
-        <v>50.71143199091318</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K34" t="n">
         <v>100.3216812543103</v>
@@ -6870,40 +6870,40 @@
         <v>355.9743406206215</v>
       </c>
       <c r="N34" t="n">
-        <v>494.2381528619503</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O34" t="n">
-        <v>606.6105655578848</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P34" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q34" t="n">
-        <v>646.2135925865362</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R34" t="n">
-        <v>646.2135925865362</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S34" t="n">
-        <v>431.441328879567</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T34" t="n">
-        <v>203.2128308914941</v>
+        <v>485.1528795515917</v>
       </c>
       <c r="U34" t="n">
-        <v>203.2128308914941</v>
+        <v>485.1528795515917</v>
       </c>
       <c r="V34" t="n">
-        <v>203.2128308914941</v>
+        <v>485.1528795515917</v>
       </c>
       <c r="W34" t="n">
-        <v>50.71143199091318</v>
+        <v>485.1528795515917</v>
       </c>
       <c r="X34" t="n">
-        <v>50.71143199091318</v>
+        <v>485.1528795515917</v>
       </c>
       <c r="Y34" t="n">
-        <v>50.71143199091318</v>
+        <v>485.1528795515917</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>627.311830203162</v>
+        <v>1610.805786930868</v>
       </c>
       <c r="C35" t="n">
-        <v>627.311830203162</v>
+        <v>1240.113771093552</v>
       </c>
       <c r="D35" t="n">
-        <v>627.311830203162</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="E35" t="n">
-        <v>627.311830203162</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="F35" t="n">
-        <v>627.311830203162</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G35" t="n">
-        <v>209.5242347723813</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H35" t="n">
-        <v>209.5242347723813</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I35" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J35" t="n">
-        <v>154.6737472370291</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K35" t="n">
-        <v>432.7629010724809</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L35" t="n">
-        <v>829.7261648535818</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M35" t="n">
-        <v>1286.636576300461</v>
+        <v>1286.636576300462</v>
       </c>
       <c r="N35" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O35" t="n">
         <v>2113.071138623965</v>
@@ -6961,28 +6961,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R35" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S35" t="n">
-        <v>2356.285268582156</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T35" t="n">
-        <v>2136.573219441338</v>
+        <v>2251.574998418504</v>
       </c>
       <c r="U35" t="n">
-        <v>1882.655886206635</v>
+        <v>2251.574998418504</v>
       </c>
       <c r="V35" t="n">
-        <v>1746.583333115243</v>
+        <v>1919.723259506869</v>
       </c>
       <c r="W35" t="n">
-        <v>1392.512507862157</v>
+        <v>1919.723259506869</v>
       </c>
       <c r="X35" t="n">
-        <v>1017.904831972087</v>
+        <v>1919.723259506869</v>
       </c>
       <c r="Y35" t="n">
-        <v>627.311830203162</v>
+        <v>1919.723259506869</v>
       </c>
     </row>
     <row r="36">
@@ -7004,13 +7004,13 @@
         <v>354.9574895622956</v>
       </c>
       <c r="F36" t="n">
-        <v>220.0009863964077</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G36" t="n">
-        <v>220.0009863964077</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H36" t="n">
-        <v>114.9213613606679</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="I36" t="n">
         <v>50.71143199091319</v>
@@ -7019,19 +7019,19 @@
         <v>120.4127199202217</v>
       </c>
       <c r="K36" t="n">
-        <v>181.9669871305374</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L36" t="n">
-        <v>573.239262455199</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M36" t="n">
-        <v>1082.635746712845</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N36" t="n">
-        <v>1620.913172155677</v>
+        <v>1805.095121106633</v>
       </c>
       <c r="O36" t="n">
-        <v>2045.703836711752</v>
+        <v>2229.885785662707</v>
       </c>
       <c r="P36" t="n">
         <v>2370.209254145837</v>
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>50.71143199091319</v>
+        <v>370.2489263805311</v>
       </c>
       <c r="C37" t="n">
-        <v>50.71143199091319</v>
+        <v>201.2221052379024</v>
       </c>
       <c r="D37" t="n">
         <v>50.71143199091319</v>
@@ -7107,40 +7107,40 @@
         <v>355.9743406206215</v>
       </c>
       <c r="N37" t="n">
-        <v>494.2381528619503</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O37" t="n">
-        <v>606.6105655578848</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P37" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q37" t="n">
-        <v>646.2135925865362</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R37" t="n">
-        <v>496.4361755452312</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S37" t="n">
-        <v>281.663911838262</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T37" t="n">
-        <v>281.663911838262</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U37" t="n">
-        <v>50.71143199091319</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V37" t="n">
-        <v>50.71143199091319</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="W37" t="n">
-        <v>50.71143199091319</v>
+        <v>370.2489263805311</v>
       </c>
       <c r="X37" t="n">
-        <v>50.71143199091319</v>
+        <v>370.2489263805311</v>
       </c>
       <c r="Y37" t="n">
-        <v>50.71143199091319</v>
+        <v>370.2489263805311</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1464.300508967213</v>
+        <v>1132.448770055577</v>
       </c>
       <c r="C38" t="n">
-        <v>1093.608493129897</v>
+        <v>761.7567542182616</v>
       </c>
       <c r="D38" t="n">
-        <v>733.4016923676768</v>
+        <v>401.549953456041</v>
       </c>
       <c r="E38" t="n">
-        <v>346.413777463346</v>
+        <v>401.549953456041</v>
       </c>
       <c r="F38" t="n">
-        <v>209.5242347723812</v>
+        <v>401.549953456041</v>
       </c>
       <c r="G38" t="n">
-        <v>209.5242347723812</v>
+        <v>401.549953456041</v>
       </c>
       <c r="H38" t="n">
-        <v>209.5242347723812</v>
+        <v>72.87007791604304</v>
       </c>
       <c r="I38" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J38" t="n">
-        <v>154.6737472370293</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K38" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L38" t="n">
-        <v>829.7261648535821</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M38" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N38" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O38" t="n">
         <v>2113.071138623965</v>
@@ -7210,16 +7210,16 @@
         <v>1818.371334220299</v>
       </c>
       <c r="V38" t="n">
-        <v>1818.371334220299</v>
+        <v>1486.519595308663</v>
       </c>
       <c r="W38" t="n">
-        <v>1464.300508967213</v>
+        <v>1132.448770055577</v>
       </c>
       <c r="X38" t="n">
-        <v>1464.300508967213</v>
+        <v>1132.448770055577</v>
       </c>
       <c r="Y38" t="n">
-        <v>1464.300508967213</v>
+        <v>1132.448770055577</v>
       </c>
     </row>
     <row r="39">
@@ -7238,37 +7238,37 @@
         <v>512.5670185594408</v>
       </c>
       <c r="E39" t="n">
-        <v>354.9574895622956</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="F39" t="n">
-        <v>292.5153518805158</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G39" t="n">
-        <v>155.7910570266529</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="H39" t="n">
-        <v>50.71143199091319</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I39" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J39" t="n">
-        <v>120.4127199202217</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K39" t="n">
-        <v>366.1489360814929</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L39" t="n">
-        <v>757.4212114061545</v>
+        <v>687.7199234768461</v>
       </c>
       <c r="M39" t="n">
-        <v>1266.817695663801</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N39" t="n">
-        <v>1805.095121106633</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O39" t="n">
-        <v>2045.703836711752</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P39" t="n">
         <v>2370.209254145837</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>50.71143199091319</v>
+        <v>314.9924154108594</v>
       </c>
       <c r="C40" t="n">
-        <v>50.71143199091319</v>
+        <v>145.9655942682308</v>
       </c>
       <c r="D40" t="n">
-        <v>50.71143199091319</v>
+        <v>145.9655942682308</v>
       </c>
       <c r="E40" t="n">
-        <v>50.71143199091319</v>
+        <v>145.9655942682308</v>
       </c>
       <c r="F40" t="n">
-        <v>50.71143199091319</v>
+        <v>145.9655942682308</v>
       </c>
       <c r="G40" t="n">
-        <v>50.71143199091319</v>
+        <v>145.9655942682308</v>
       </c>
       <c r="H40" t="n">
-        <v>50.71143199091319</v>
+        <v>145.9655942682308</v>
       </c>
       <c r="I40" t="n">
         <v>50.71143199091319</v>
@@ -7353,31 +7353,31 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q40" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R40" t="n">
-        <v>496.4361755452314</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="S40" t="n">
-        <v>281.6639118382623</v>
+        <v>314.9924154108594</v>
       </c>
       <c r="T40" t="n">
-        <v>281.6639118382623</v>
+        <v>314.9924154108594</v>
       </c>
       <c r="U40" t="n">
-        <v>281.6639118382623</v>
+        <v>314.9924154108594</v>
       </c>
       <c r="V40" t="n">
-        <v>281.6639118382623</v>
+        <v>314.9924154108594</v>
       </c>
       <c r="W40" t="n">
-        <v>50.71143199091319</v>
+        <v>314.9924154108594</v>
       </c>
       <c r="X40" t="n">
-        <v>50.71143199091319</v>
+        <v>314.9924154108594</v>
       </c>
       <c r="Y40" t="n">
-        <v>50.71143199091319</v>
+        <v>314.9924154108594</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1219.799305642197</v>
+        <v>421.403447828229</v>
       </c>
       <c r="C41" t="n">
-        <v>849.1072898048812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D41" t="n">
-        <v>849.1072898048812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E41" t="n">
-        <v>462.1193749005504</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F41" t="n">
         <v>50.71143199091319</v>
@@ -7411,13 +7411,13 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J41" t="n">
-        <v>154.6737472370293</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K41" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L41" t="n">
-        <v>829.7261648535821</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M41" t="n">
         <v>1286.636576300462</v>
@@ -7438,25 +7438,25 @@
         <v>2471.287047559323</v>
       </c>
       <c r="S41" t="n">
-        <v>2292.00071659582</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T41" t="n">
-        <v>2180.176053678606</v>
+        <v>2260.119022976587</v>
       </c>
       <c r="U41" t="n">
-        <v>1926.258720443903</v>
+        <v>2260.119022976587</v>
       </c>
       <c r="V41" t="n">
-        <v>1594.406981532267</v>
+        <v>1928.267284064951</v>
       </c>
       <c r="W41" t="n">
-        <v>1594.406981532267</v>
+        <v>1574.196458811866</v>
       </c>
       <c r="X41" t="n">
-        <v>1219.799305642197</v>
+        <v>1199.588782921795</v>
       </c>
       <c r="Y41" t="n">
-        <v>1219.799305642197</v>
+        <v>808.9957811528704</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>832.9084402786798</v>
+        <v>834.6762319666548</v>
       </c>
       <c r="C42" t="n">
-        <v>660.1553252004969</v>
+        <v>661.9231168884719</v>
       </c>
       <c r="D42" t="n">
-        <v>512.5670185594408</v>
+        <v>514.3348102474158</v>
       </c>
       <c r="E42" t="n">
-        <v>396.6014461979139</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="F42" t="n">
-        <v>251.6456562145308</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G42" t="n">
-        <v>114.9213613606679</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="H42" t="n">
         <v>114.9213613606679</v>
@@ -7490,19 +7490,19 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J42" t="n">
-        <v>120.4127199202217</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K42" t="n">
-        <v>366.1489360814929</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L42" t="n">
-        <v>757.4212114061545</v>
+        <v>687.7199234768461</v>
       </c>
       <c r="M42" t="n">
-        <v>1266.817695663801</v>
+        <v>1082.635746712845</v>
       </c>
       <c r="N42" t="n">
-        <v>1805.095121106633</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O42" t="n">
         <v>2045.703836711752</v>
@@ -7514,28 +7514,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R42" t="n">
-        <v>2481.698134656769</v>
+        <v>2483.465926344744</v>
       </c>
       <c r="S42" t="n">
-        <v>2323.528421865784</v>
+        <v>2325.296213553759</v>
       </c>
       <c r="T42" t="n">
-        <v>2125.854233501242</v>
+        <v>2127.622025189217</v>
       </c>
       <c r="U42" t="n">
-        <v>1898.972060912078</v>
+        <v>1900.739852600053</v>
       </c>
       <c r="V42" t="n">
-        <v>1664.720817437679</v>
+        <v>1666.488609125654</v>
       </c>
       <c r="W42" t="n">
-        <v>1412.206325771012</v>
+        <v>1413.974117458987</v>
       </c>
       <c r="X42" t="n">
-        <v>1205.67942717659</v>
+        <v>1207.447218864565</v>
       </c>
       <c r="Y42" t="n">
-        <v>999.9509914002402</v>
+        <v>1001.718783088215</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>50.71143199091319</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="C43" t="n">
-        <v>50.71143199091319</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="D43" t="n">
-        <v>50.71143199091319</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="E43" t="n">
-        <v>50.71143199091319</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="F43" t="n">
-        <v>50.71143199091319</v>
+        <v>303.6782230096419</v>
       </c>
       <c r="G43" t="n">
-        <v>50.71143199091319</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="H43" t="n">
         <v>50.71143199091319</v>
@@ -7590,31 +7590,31 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q43" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R43" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S43" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T43" t="n">
-        <v>628.6047496418601</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="U43" t="n">
-        <v>339.6938328872925</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="V43" t="n">
-        <v>339.6938328872925</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="W43" t="n">
-        <v>50.71143199091319</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="X43" t="n">
-        <v>50.71143199091319</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="Y43" t="n">
-        <v>50.71143199091319</v>
+        <v>451.3135981710606</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>410.9182327531338</v>
+        <v>1693.101712465756</v>
       </c>
       <c r="C44" t="n">
-        <v>410.9182327531338</v>
+        <v>1322.409696628441</v>
       </c>
       <c r="D44" t="n">
-        <v>50.71143199091319</v>
+        <v>962.2028958662199</v>
       </c>
       <c r="E44" t="n">
-        <v>50.71143199091319</v>
+        <v>962.2028958662199</v>
       </c>
       <c r="F44" t="n">
-        <v>50.71143199091319</v>
+        <v>550.7949529565826</v>
       </c>
       <c r="G44" t="n">
-        <v>50.71143199091319</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="H44" t="n">
         <v>50.71143199091319</v>
@@ -7648,13 +7648,13 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J44" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370293</v>
       </c>
       <c r="K44" t="n">
-        <v>432.7629010724813</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L44" t="n">
-        <v>829.7261648535823</v>
+        <v>829.7261648535821</v>
       </c>
       <c r="M44" t="n">
         <v>1286.636576300462</v>
@@ -7672,28 +7672,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R44" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S44" t="n">
-        <v>2356.285268582156</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T44" t="n">
-        <v>2356.285268582156</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U44" t="n">
-        <v>2102.367935347454</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="V44" t="n">
-        <v>1917.782068989856</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="W44" t="n">
-        <v>1563.71124373677</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="X44" t="n">
-        <v>1189.1035678467</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="Y44" t="n">
-        <v>798.5105660777753</v>
+        <v>2080.694045790398</v>
       </c>
     </row>
     <row r="45">
@@ -7730,10 +7730,10 @@
         <v>120.4127199202217</v>
       </c>
       <c r="K45" t="n">
-        <v>181.9669871305373</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L45" t="n">
-        <v>573.239262455199</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M45" t="n">
         <v>1082.635746712845</v>
@@ -7751,25 +7751,25 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R45" t="n">
-        <v>2535.571599545659</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S45" t="n">
-        <v>2377.401886754675</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T45" t="n">
-        <v>2179.727698390133</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U45" t="n">
-        <v>1952.845525800969</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V45" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W45" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X45" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y45" t="n">
         <v>1146.674573071598</v>
@@ -7830,25 +7830,25 @@
         <v>679.5420961591335</v>
       </c>
       <c r="R46" t="n">
-        <v>679.5420961591335</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="S46" t="n">
-        <v>499.8981864110752</v>
+        <v>314.9924154108594</v>
       </c>
       <c r="T46" t="n">
-        <v>271.6696884230023</v>
+        <v>314.9924154108594</v>
       </c>
       <c r="U46" t="n">
-        <v>271.6696884230023</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="V46" t="n">
-        <v>271.6696884230023</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="W46" t="n">
-        <v>271.6696884230023</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="X46" t="n">
-        <v>271.6696884230023</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y46" t="n">
         <v>50.71143199091319</v>
@@ -7987,7 +7987,7 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M2" t="n">
-        <v>467.4940748325458</v>
+        <v>467.4940748325457</v>
       </c>
       <c r="N2" t="n">
         <v>454.8408013884635</v>
@@ -8060,13 +8060,13 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K3" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L3" t="n">
-        <v>385.6739591155975</v>
+        <v>241.8851450194966</v>
       </c>
       <c r="M3" t="n">
-        <v>409.7241198125511</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N3" t="n">
         <v>402.3419766228525</v>
@@ -8294,28 +8294,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J6" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K6" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L6" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M6" t="n">
-        <v>272.7740099466066</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N6" t="n">
-        <v>128.05816928125</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O6" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P6" t="n">
-        <v>331.2012793855346</v>
+        <v>146.9415753334873</v>
       </c>
       <c r="Q6" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R6" t="n">
         <v>47.34253660377365</v>
@@ -8531,7 +8531,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J9" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K9" t="n">
         <v>134.395403</v>
@@ -8540,19 +8540,19 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M9" t="n">
-        <v>412.8644904155703</v>
+        <v>228.6047863635229</v>
       </c>
       <c r="N9" t="n">
         <v>402.3419766228525</v>
       </c>
       <c r="O9" t="n">
-        <v>139.0313383333333</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P9" t="n">
-        <v>328.0609087825154</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q9" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8768,7 +8768,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>131.1346767540252</v>
+        <v>112.1249761973247</v>
       </c>
       <c r="K12" t="n">
         <v>275.0438464930818</v>
@@ -8780,7 +8780,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N12" t="n">
-        <v>312.4736966395628</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O12" t="n">
         <v>409.6168120477987</v>
@@ -8789,7 +8789,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
-        <v>218.4803792452831</v>
+        <v>51.44770712425047</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -9005,10 +9005,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>60.72933541128936</v>
+        <v>60.72933541128934</v>
       </c>
       <c r="K15" t="n">
-        <v>275.0438464930818</v>
+        <v>159.4068151580842</v>
       </c>
       <c r="L15" t="n">
         <v>385.6739591155975</v>
@@ -9026,7 +9026,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>102.843347910286</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9245,7 +9245,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
-        <v>275.0438464930818</v>
+        <v>89.00147381534832</v>
       </c>
       <c r="L18" t="n">
         <v>385.6739591155975</v>
@@ -9257,7 +9257,7 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O18" t="n">
-        <v>223.5744393700659</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
         <v>331.2012793855346</v>
@@ -9479,16 +9479,16 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
-        <v>275.0438464930818</v>
+        <v>89.00147381534887</v>
       </c>
       <c r="L21" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
-        <v>368.6962349650029</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
         <v>498.5160693172957</v>
@@ -9722,7 +9722,7 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L24" t="n">
-        <v>385.6739591155975</v>
+        <v>366.664258558897</v>
       </c>
       <c r="M24" t="n">
         <v>484.3332662999999</v>
@@ -9731,13 +9731,13 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O24" t="n">
-        <v>223.5744393700659</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
-        <v>218.4803792452831</v>
+        <v>51.44770712425047</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9953,13 +9953,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>131.1346767540252</v>
+        <v>112.1249761973247</v>
       </c>
       <c r="K27" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L27" t="n">
-        <v>199.6315864378647</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M27" t="n">
         <v>484.3332662999999</v>
@@ -9974,7 +9974,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q27" t="n">
-        <v>218.4803792452831</v>
+        <v>51.44770712425047</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10196,7 +10196,7 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L30" t="n">
-        <v>199.6315864378647</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M30" t="n">
         <v>484.3332662999999</v>
@@ -10208,10 +10208,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P30" t="n">
-        <v>331.2012793855346</v>
+        <v>312.1915788288343</v>
       </c>
       <c r="Q30" t="n">
-        <v>218.4803792452831</v>
+        <v>51.44770712425047</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10427,7 +10427,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>131.1346767540252</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K33" t="n">
         <v>275.0438464930818</v>
@@ -10442,13 +10442,13 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O33" t="n">
-        <v>223.5744393700654</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P33" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q33" t="n">
-        <v>218.4803792452831</v>
+        <v>102.843347910286</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10667,7 +10667,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
-        <v>89.00147381534893</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L36" t="n">
         <v>385.6739591155975</v>
@@ -10682,7 +10682,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P36" t="n">
-        <v>331.2012793855346</v>
+        <v>145.1589067078019</v>
       </c>
       <c r="Q36" t="n">
         <v>218.4803792452831</v>
@@ -10901,7 +10901,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>131.1346767540252</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K39" t="n">
         <v>275.0438464930818</v>
@@ -10916,10 +10916,10 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O39" t="n">
-        <v>223.5744393700659</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P39" t="n">
-        <v>331.2012793855346</v>
+        <v>215.5642480505376</v>
       </c>
       <c r="Q39" t="n">
         <v>218.4803792452831</v>
@@ -11074,7 +11074,7 @@
         <v>454.8408013884635</v>
       </c>
       <c r="O41" t="n">
-        <v>396.032188513255</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P41" t="n">
         <v>334.6706564983419</v>
@@ -11138,7 +11138,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>131.1346767540252</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K42" t="n">
         <v>275.0438464930818</v>
@@ -11147,13 +11147,13 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M42" t="n">
-        <v>484.3332662999999</v>
+        <v>368.6962349650029</v>
       </c>
       <c r="N42" t="n">
         <v>498.5160693172957</v>
       </c>
       <c r="O42" t="n">
-        <v>223.5744393700659</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P42" t="n">
         <v>331.2012793855346</v>
@@ -11378,13 +11378,13 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K45" t="n">
-        <v>89.00147381534887</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L45" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M45" t="n">
-        <v>484.3332662999999</v>
+        <v>298.290893622267</v>
       </c>
       <c r="N45" t="n">
         <v>498.5160693172957</v>
@@ -23266,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,16 +23311,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>301.3956783141187</v>
+        <v>147.5425510922252</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23348,7 +23348,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>81.6885157785874</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>91.92161561464286</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>69.42365341491771</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.3365529312023</v>
       </c>
       <c r="D13" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
         <v>167.3311041893321</v>
@@ -23439,7 +23439,7 @@
         <v>136.9633875020681</v>
       </c>
       <c r="J13" t="n">
-        <v>49.35397375491782</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>148.2796428708918</v>
       </c>
       <c r="S13" t="n">
-        <v>212.6245410698995</v>
+        <v>172.1077926155037</v>
       </c>
       <c r="T13" t="n">
         <v>225.9462130081922</v>
@@ -23475,7 +23475,7 @@
         <v>286.0218075870219</v>
       </c>
       <c r="V13" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.0925768874155</v>
@@ -23484,7 +23484,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="14">
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
-        <v>176.7093680426367</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>71.21512215100273</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I14" t="n">
         <v>157.2246747536534</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>63.64170646647295</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>177.493467653868</v>
       </c>
       <c r="T14" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V14" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>370.8615991311694</v>
@@ -23585,13 +23585,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>41.22751706926215</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23639,7 +23639,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>145.2563458546446</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23670,13 +23670,13 @@
         <v>167.3311041893321</v>
       </c>
       <c r="H16" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>136.9633875020681</v>
       </c>
       <c r="J16" t="n">
-        <v>49.35397375491782</v>
+        <v>49.3539737549178</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>32.99521853687121</v>
+        <v>32.9952185368712</v>
       </c>
       <c r="R16" t="n">
         <v>148.2796428708918</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T16" t="n">
         <v>225.9462130081922</v>
@@ -23712,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.9363510669392</v>
+        <v>73.08443607744073</v>
       </c>
       <c r="W16" t="n">
-        <v>162.1965680177989</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X16" t="n">
         <v>226.1403599323093</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23743,7 +23743,7 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F17" t="n">
-        <v>407.2938634805408</v>
+        <v>207.1456032119619</v>
       </c>
       <c r="G17" t="n">
         <v>413.6097194764729</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>63.64170646647293</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23788,19 +23788,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X17" t="n">
-        <v>23.53146288069291</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>145.2563458546446</v>
       </c>
       <c r="C18" t="n">
-        <v>145.2563458546446</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>149.0055665145194</v>
@@ -23913,7 +23913,7 @@
         <v>136.9633875020681</v>
       </c>
       <c r="J19" t="n">
-        <v>49.35397375491782</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,25 +23934,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>212.6245410698995</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U19" t="n">
         <v>286.0218075870219</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>208.4430731249681</v>
       </c>
       <c r="W19" t="n">
-        <v>142.4327834360089</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X19" t="n">
         <v>226.1403599323093</v>
@@ -23971,19 +23971,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>252.2602293858455</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>325.3930767845979</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V20" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
-        <v>94.54012396963481</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24065,10 +24065,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I21" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24113,10 +24113,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>81.68851577858739</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>41.22751706926212</v>
       </c>
     </row>
     <row r="22">
@@ -24171,31 +24171,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S22" t="n">
-        <v>212.6245410698995</v>
+        <v>69.15889454260974</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U22" t="n">
         <v>286.0218075870219</v>
       </c>
       <c r="V22" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.0925768874155</v>
       </c>
       <c r="X22" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.427390757185378</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="23">
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>301.6450694757477</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>325.3930767845979</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
-        <v>39.66440295703768</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24293,7 +24293,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>41.22751706926216</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -24302,10 +24302,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>104.0288287853824</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24372,22 +24372,22 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E25" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3311041893321</v>
+        <v>74.37821879420312</v>
       </c>
       <c r="H25" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>136.9633875020681</v>
       </c>
       <c r="J25" t="n">
-        <v>49.35397375491782</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,13 +24408,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R25" t="n">
         <v>148.2796428708918</v>
       </c>
       <c r="S25" t="n">
-        <v>67.77228895619317</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="26">
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>147.5483884176892</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F26" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>84.33436822908806</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H26" t="n">
         <v>325.3930767845979</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>63.64170646647295</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V26" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24527,19 +24527,19 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>145.2563458546446</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>41.22751706926218</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>104.0288287853824</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.90877225932451</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C28" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.3311041893321</v>
@@ -24624,7 +24624,7 @@
         <v>136.9633875020681</v>
       </c>
       <c r="J28" t="n">
-        <v>49.35397375491782</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,10 +24645,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>135.2130503730791</v>
       </c>
       <c r="S28" t="n">
         <v>212.6245410698995</v>
@@ -24663,7 +24663,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X28" t="n">
         <v>226.1403599323093</v>
@@ -24682,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>182.2255438670479</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
         <v>383.1180357552875</v>
@@ -24700,7 +24700,7 @@
         <v>325.3930767845979</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>177.493467653868</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>127.3983135194005</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24770,16 +24770,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>81.6885157785874</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.750113771095307</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24858,10 +24858,10 @@
         <v>156.6686349500177</v>
       </c>
       <c r="I31" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>49.35397375491782</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R31" t="n">
         <v>148.2796428708918</v>
@@ -24891,13 +24891,13 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T31" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>129.4947111549781</v>
+        <v>206.4727420614279</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W31" t="n">
         <v>286.0925768874155</v>
@@ -24922,22 +24922,22 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>136.0361250444061</v>
       </c>
       <c r="G32" t="n">
-        <v>11.46341716379015</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>63.64170646647295</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -24973,10 +24973,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
         <v>350.5301170005546</v>
@@ -24985,7 +24985,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="33">
@@ -25007,16 +25007,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>135.3570519053243</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.750113771095677</v>
+        <v>9.899293949320239</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25083,10 +25083,10 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E34" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.3311041893321</v>
@@ -25095,10 +25095,10 @@
         <v>156.6686349500177</v>
       </c>
       <c r="I34" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>49.35397375491782</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,16 +25119,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R34" t="n">
         <v>148.2796428708918</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>33.50088856672579</v>
       </c>
       <c r="U34" t="n">
         <v>286.0218075870219</v>
@@ -25137,7 +25137,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W34" t="n">
-        <v>135.1161919758405</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X34" t="n">
         <v>226.1403599323093</v>
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>383.716409991395</v>
+        <v>77.88811214115401</v>
       </c>
       <c r="C35" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>325.3930767845979</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>63.64170646647295</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V35" t="n">
-        <v>193.8213939620409</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="36">
@@ -25244,16 +25244,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>9.899293949320281</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>135.3570519053243</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>41.22751706926217</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C37" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.9746241731992</v>
@@ -25335,7 +25335,7 @@
         <v>136.9633875020681</v>
       </c>
       <c r="J37" t="n">
-        <v>49.35397375491782</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,25 +25356,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T37" t="n">
         <v>225.9462130081922</v>
       </c>
       <c r="U37" t="n">
-        <v>57.37885253814653</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W37" t="n">
-        <v>286.0925768874155</v>
+        <v>265.9141463936211</v>
       </c>
       <c r="X37" t="n">
         <v>226.1403599323093</v>
@@ -25399,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
-        <v>271.7732162164858</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
         <v>413.6097194764729</v>
       </c>
       <c r="H38" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>135.2876152877748</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25450,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25478,10 +25478,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1.750113771095243</v>
       </c>
       <c r="F39" t="n">
-        <v>81.68851577858734</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25490,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>149.0055665145194</v>
@@ -25569,7 +25569,7 @@
         <v>156.6686349500177</v>
       </c>
       <c r="I40" t="n">
-        <v>136.9633875020681</v>
+        <v>42.66176684752365</v>
       </c>
       <c r="J40" t="n">
         <v>49.35397375491781</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W40" t="n">
-        <v>57.44962183853997</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X40" t="n">
         <v>226.1403599323093</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,10 +25636,10 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
         <v>413.6097194764729</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T41" t="n">
-        <v>106.8085123613682</v>
+        <v>8.458584312501898</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25715,16 +25715,16 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>41.22751706926216</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>104.0288287853823</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>1.750113771095307</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25797,13 +25797,13 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F43" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3311041893321</v>
+        <v>73.5626160308084</v>
       </c>
       <c r="H43" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>136.9633875020681</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R43" t="n">
         <v>148.2796428708918</v>
@@ -25839,16 +25839,16 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T43" t="n">
-        <v>208.5134584929626</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V43" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X43" t="n">
         <v>226.1403599323093</v>
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25876,13 +25876,13 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F44" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.6097194764729</v>
+        <v>243.9201105050581</v>
       </c>
       <c r="H44" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>157.2246747536534</v>
@@ -25912,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T44" t="n">
         <v>217.5149286494106</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V44" t="n">
-        <v>145.7932138284976</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26003,7 +26003,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>91.92161561464249</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>145.2563458546445</v>
       </c>
     </row>
     <row r="46">
@@ -26070,16 +26070,16 @@
         <v>32.99521853687121</v>
       </c>
       <c r="R46" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>34.7770704193218</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0218075870219</v>
+        <v>24.38363400127514</v>
       </c>
       <c r="V46" t="n">
         <v>252.9363510669392</v>
@@ -26091,7 +26091,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>594429.3893143022</v>
+        <v>594429.3893143021</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>594429.3893143022</v>
+        <v>594429.3893143021</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>594429.3893143022</v>
+        <v>594429.389314302</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>594429.3893143022</v>
+        <v>594429.389314302</v>
       </c>
     </row>
     <row r="13">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>610439.5564612023</v>
+      </c>
+      <c r="C2" t="n">
         <v>610439.5564612022</v>
       </c>
-      <c r="C2" t="n">
-        <v>610439.5564612021</v>
-      </c>
       <c r="D2" t="n">
-        <v>610439.5564612024</v>
+        <v>610439.5564612023</v>
       </c>
       <c r="E2" t="n">
         <v>411521.9655491572</v>
@@ -26328,34 +26328,34 @@
         <v>411521.9655491572</v>
       </c>
       <c r="G2" t="n">
-        <v>411521.9655491573</v>
+        <v>411521.9655491571</v>
       </c>
       <c r="H2" t="n">
-        <v>411521.9655491574</v>
+        <v>411521.9655491571</v>
       </c>
       <c r="I2" t="n">
         <v>411521.9655491571</v>
       </c>
       <c r="J2" t="n">
-        <v>411521.9655491574</v>
+        <v>411521.9655491571</v>
       </c>
       <c r="K2" t="n">
-        <v>411521.9655491574</v>
+        <v>411521.9655491572</v>
       </c>
       <c r="L2" t="n">
-        <v>411521.9655491572</v>
+        <v>411521.9655491571</v>
       </c>
       <c r="M2" t="n">
         <v>411521.9655491572</v>
       </c>
       <c r="N2" t="n">
-        <v>411521.9655491572</v>
+        <v>411521.9655491573</v>
       </c>
       <c r="O2" t="n">
-        <v>411521.9655491572</v>
+        <v>411521.9655491574</v>
       </c>
       <c r="P2" t="n">
-        <v>411521.9655491572</v>
+        <v>411521.9655491573</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773985</v>
+        <v>91918.81236773984</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>89616.02429853741</v>
+        <v>89616.02429853745</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>310710.8877942914</v>
+        <v>310710.8877942915</v>
       </c>
       <c r="C4" t="n">
         <v>310710.8877942915</v>
       </c>
       <c r="D4" t="n">
-        <v>310710.8877942914</v>
+        <v>310710.8877942915</v>
       </c>
       <c r="E4" t="n">
         <v>46215.62445539849</v>
       </c>
       <c r="F4" t="n">
-        <v>46215.6244553985</v>
+        <v>46215.62445539849</v>
       </c>
       <c r="G4" t="n">
         <v>46215.62445539849</v>
@@ -26441,16 +26441,16 @@
         <v>46215.62445539849</v>
       </c>
       <c r="J4" t="n">
-        <v>46215.6244553985</v>
+        <v>46215.62445539849</v>
       </c>
       <c r="K4" t="n">
-        <v>46215.6244553985</v>
+        <v>46215.62445539849</v>
       </c>
       <c r="L4" t="n">
         <v>46215.62445539849</v>
       </c>
       <c r="M4" t="n">
-        <v>46215.6244553985</v>
+        <v>46215.62445539849</v>
       </c>
       <c r="N4" t="n">
         <v>46215.62445539849</v>
@@ -26459,7 +26459,7 @@
         <v>46215.62445539849</v>
       </c>
       <c r="P4" t="n">
-        <v>46215.6244553985</v>
+        <v>46215.62445539849</v>
       </c>
     </row>
     <row r="5">
@@ -26499,7 +26499,7 @@
         <v>45292.2611156748</v>
       </c>
       <c r="L5" t="n">
-        <v>45292.26111567479</v>
+        <v>45292.2611156748</v>
       </c>
       <c r="M5" t="n">
         <v>45292.2611156748</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157505.8008128015</v>
+        <v>157505.8008128016</v>
       </c>
       <c r="C6" t="n">
-        <v>249424.6131805412</v>
+        <v>249424.6131805413</v>
       </c>
       <c r="D6" t="n">
-        <v>249424.6131805416</v>
+        <v>249424.6131805414</v>
       </c>
       <c r="E6" t="n">
-        <v>-36175.3499085962</v>
+        <v>-42805.93627233112</v>
       </c>
       <c r="F6" t="n">
-        <v>320014.0799780839</v>
+        <v>313383.4936143491</v>
       </c>
       <c r="G6" t="n">
-        <v>320014.079978084</v>
+        <v>313383.493614349</v>
       </c>
       <c r="H6" t="n">
-        <v>320014.0799780841</v>
+        <v>313383.4936143489</v>
       </c>
       <c r="I6" t="n">
-        <v>320014.0799780838</v>
+        <v>313383.4936143489</v>
       </c>
       <c r="J6" t="n">
-        <v>248249.3674899978</v>
+        <v>241618.7811262627</v>
       </c>
       <c r="K6" t="n">
-        <v>320014.0799780841</v>
+        <v>313383.493614349</v>
       </c>
       <c r="L6" t="n">
-        <v>320014.079978084</v>
+        <v>313383.493614349</v>
       </c>
       <c r="M6" t="n">
-        <v>230398.0556795465</v>
+        <v>223767.4693158116</v>
       </c>
       <c r="N6" t="n">
-        <v>320014.0799780839</v>
+        <v>313383.4936143492</v>
       </c>
       <c r="O6" t="n">
-        <v>320014.079978084</v>
+        <v>313383.4936143492</v>
       </c>
       <c r="P6" t="n">
-        <v>320014.079978084</v>
+        <v>313383.4936143492</v>
       </c>
     </row>
   </sheetData>
@@ -26749,10 +26749,10 @@
         <v>309.705174430311</v>
       </c>
       <c r="F3" t="n">
-        <v>309.705174430311</v>
+        <v>309.7051744303111</v>
       </c>
       <c r="G3" t="n">
-        <v>309.705174430311</v>
+        <v>309.7051744303111</v>
       </c>
       <c r="H3" t="n">
         <v>309.705174430311</v>
@@ -26819,7 +26819,7 @@
         <v>633.8928998864149</v>
       </c>
       <c r="L4" t="n">
-        <v>633.8928998864147</v>
+        <v>633.8928998864149</v>
       </c>
       <c r="M4" t="n">
         <v>633.8928998864149</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>359.6090925448123</v>
+        <v>359.6090925448124</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>359.6090925448123</v>
+        <v>359.6090925448125</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>359.6090925448123</v>
+        <v>359.6090925448124</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>151.1188212668519</v>
       </c>
       <c r="H2" t="n">
         <v>338.1439033881534</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T2" t="n">
         <v>222.9651171964204</v>
       </c>
       <c r="U2" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W2" t="n">
-        <v>136.1213131223407</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X2" t="n">
         <v>370.8615991311694</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>144.5543816072967</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E3" t="n">
-        <v>156.0334337071738</v>
+        <v>37.59400756229908</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>168.9616139056444</v>
       </c>
       <c r="T3" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>224.6571770672012</v>
       </c>
       <c r="V3" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27551,10 +27551,10 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G4" t="n">
-        <v>167.8895889301081</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>161.6340720089168</v>
+        <v>150.6105342974165</v>
       </c>
       <c r="I4" t="n">
         <v>153.7585467974036</v>
@@ -27590,7 +27590,7 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T4" t="n">
-        <v>49.4193393498993</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U4" t="n">
         <v>286.0522703910642</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C5" t="n">
         <v>366.9850956789426</v>
@@ -27624,7 +27624,7 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E5" t="n">
-        <v>229.8155907354488</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F5" t="n">
         <v>133.0100561389384</v>
@@ -27639,7 +27639,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27678,10 +27678,10 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W5" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X5" t="n">
-        <v>370.8615991311694</v>
+        <v>218.2184312458932</v>
       </c>
       <c r="Y5" t="n">
         <v>386.6870717512358</v>
@@ -27751,7 +27751,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27760,10 +27760,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
-        <v>37.64003811043287</v>
+        <v>58.62606375904809</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="7">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.170564849075447</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C7" t="n">
         <v>167.3365529312023</v>
@@ -27800,7 +27800,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W7" t="n">
-        <v>286.0925768874155</v>
+        <v>121.9538599636406</v>
       </c>
       <c r="X7" t="n">
         <v>226.1403599323093</v>
@@ -27855,7 +27855,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C8" t="n">
-        <v>92.70128833734015</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D8" t="n">
         <v>82.3209254129959</v>
@@ -27864,10 +27864,10 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>166.3639631086199</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H8" t="n">
         <v>338.1439033881534</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
         <v>205.8649517235392</v>
@@ -27912,16 +27912,16 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V8" t="n">
-        <v>251.6027727358473</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W8" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X8" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y8" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="9">
@@ -27931,28 +27931,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>168.9616139056444</v>
+        <v>168.1426386565605</v>
       </c>
       <c r="T9" t="n">
-        <v>16.72123722124337</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="10">
@@ -28016,7 +28016,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D10" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.9746241731992</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.76069987584818</v>
+        <v>49.85313974875918</v>
       </c>
       <c r="R10" t="n">
         <v>173.3911476697823</v>
@@ -28076,7 +28076,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X10" t="n">
-        <v>47.22723329070089</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y10" t="n">
         <v>218.7486738677682</v>
@@ -31758,13 +31758,13 @@
         <v>12.75082660355546</v>
       </c>
       <c r="I11" t="n">
-        <v>47.99963311447062</v>
+        <v>47.99963311447063</v>
       </c>
       <c r="J11" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K11" t="n">
-        <v>158.3745108821695</v>
+        <v>158.3745108821696</v>
       </c>
       <c r="L11" t="n">
         <v>196.477585181553</v>
@@ -31773,7 +31773,7 @@
         <v>218.6191706922064</v>
       </c>
       <c r="N11" t="n">
-        <v>222.1566574333124</v>
+        <v>222.1566574333125</v>
       </c>
       <c r="O11" t="n">
         <v>209.776231993146</v>
@@ -31785,16 +31785,16 @@
         <v>134.4509533879849</v>
       </c>
       <c r="R11" t="n">
-        <v>78.20911623440412</v>
+        <v>78.20911623440414</v>
       </c>
       <c r="S11" t="n">
-        <v>28.37148406967121</v>
+        <v>28.37148406967122</v>
       </c>
       <c r="T11" t="n">
-        <v>5.450188547009793</v>
+        <v>5.450188547009794</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09960367418864263</v>
+        <v>0.09960367418864266</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6661582997180274</v>
+        <v>0.6661582997180275</v>
       </c>
       <c r="H12" t="n">
-        <v>6.433686736750424</v>
+        <v>6.433686736750425</v>
       </c>
       <c r="I12" t="n">
-        <v>22.93571338941454</v>
+        <v>22.93571338941455</v>
       </c>
       <c r="J12" t="n">
-        <v>62.93735058871066</v>
+        <v>62.93735058871067</v>
       </c>
       <c r="K12" t="n">
         <v>107.5699566698185</v>
       </c>
       <c r="L12" t="n">
-        <v>144.641081699741</v>
+        <v>144.6410816997411</v>
       </c>
       <c r="M12" t="n">
         <v>168.7893200645195</v>
@@ -31855,16 +31855,16 @@
         <v>173.2566711183303</v>
       </c>
       <c r="O12" t="n">
-        <v>158.4960056351045</v>
+        <v>158.4960056351046</v>
       </c>
       <c r="P12" t="n">
         <v>127.2070177768574</v>
       </c>
       <c r="Q12" t="n">
-        <v>85.0345226096205</v>
+        <v>85.03452260962051</v>
       </c>
       <c r="R12" t="n">
-        <v>41.36024952108947</v>
+        <v>41.36024952108948</v>
       </c>
       <c r="S12" t="n">
         <v>12.37359824256949</v>
@@ -31873,7 +31873,7 @@
         <v>2.685085427372224</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04382620392881761</v>
+        <v>0.04382620392881762</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5584847407759705</v>
+        <v>0.5584847407759707</v>
       </c>
       <c r="H13" t="n">
-        <v>4.965437058899087</v>
+        <v>4.965437058899089</v>
       </c>
       <c r="I13" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J13" t="n">
-        <v>39.48487117286112</v>
+        <v>39.48487117286113</v>
       </c>
       <c r="K13" t="n">
-        <v>64.88577261015365</v>
+        <v>64.88577261015367</v>
       </c>
       <c r="L13" t="n">
-        <v>83.03144955136568</v>
+        <v>83.0314495513657</v>
       </c>
       <c r="M13" t="n">
-        <v>87.5450216836369</v>
+        <v>87.54502168363692</v>
       </c>
       <c r="N13" t="n">
-        <v>85.46339674074473</v>
+        <v>85.46339674074474</v>
       </c>
       <c r="O13" t="n">
-        <v>78.93927954167994</v>
+        <v>78.93927954167995</v>
       </c>
       <c r="P13" t="n">
-        <v>67.54619082985009</v>
+        <v>67.5461908298501</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.76548133897696</v>
+        <v>46.76548133897697</v>
       </c>
       <c r="R13" t="n">
-        <v>25.11150479889045</v>
+        <v>25.11150479889046</v>
       </c>
       <c r="S13" t="n">
-        <v>9.732865891523048</v>
+        <v>9.732865891523049</v>
       </c>
       <c r="T13" t="n">
-        <v>2.38625298331551</v>
+        <v>2.386252983315511</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0304628040423257</v>
+        <v>0.03046280404232571</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.245045927358033</v>
+        <v>1.245045927358034</v>
       </c>
       <c r="H14" t="n">
-        <v>12.75082660355546</v>
+        <v>12.75082660355547</v>
       </c>
       <c r="I14" t="n">
-        <v>47.99963311447062</v>
+        <v>47.99963311447064</v>
       </c>
       <c r="J14" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K14" t="n">
-        <v>158.3745108821695</v>
+        <v>158.3745108821696</v>
       </c>
       <c r="L14" t="n">
-        <v>196.477585181553</v>
+        <v>196.4775851815531</v>
       </c>
       <c r="M14" t="n">
-        <v>218.6191706922064</v>
+        <v>218.6191706922065</v>
       </c>
       <c r="N14" t="n">
-        <v>222.1566574333124</v>
+        <v>222.1566574333125</v>
       </c>
       <c r="O14" t="n">
         <v>209.776231993146</v>
       </c>
       <c r="P14" t="n">
-        <v>179.0391606614945</v>
+        <v>179.0391606614946</v>
       </c>
       <c r="Q14" t="n">
-        <v>134.4509533879849</v>
+        <v>134.450953387985</v>
       </c>
       <c r="R14" t="n">
-        <v>78.20911623440412</v>
+        <v>78.20911623440415</v>
       </c>
       <c r="S14" t="n">
-        <v>28.37148406967121</v>
+        <v>28.37148406967122</v>
       </c>
       <c r="T14" t="n">
-        <v>5.450188547009793</v>
+        <v>5.450188547009795</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09960367418864263</v>
+        <v>0.09960367418864267</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6661582997180274</v>
+        <v>0.6661582997180276</v>
       </c>
       <c r="H15" t="n">
-        <v>6.433686736750424</v>
+        <v>6.433686736750426</v>
       </c>
       <c r="I15" t="n">
-        <v>22.93571338941454</v>
+        <v>22.93571338941455</v>
       </c>
       <c r="J15" t="n">
-        <v>62.93735058871066</v>
+        <v>62.93735058871069</v>
       </c>
       <c r="K15" t="n">
         <v>107.5699566698185</v>
       </c>
       <c r="L15" t="n">
-        <v>144.641081699741</v>
+        <v>144.6410816997411</v>
       </c>
       <c r="M15" t="n">
         <v>168.7893200645195</v>
       </c>
       <c r="N15" t="n">
-        <v>173.2566711183303</v>
+        <v>173.2566711183304</v>
       </c>
       <c r="O15" t="n">
-        <v>158.4960056351045</v>
+        <v>158.4960056351046</v>
       </c>
       <c r="P15" t="n">
         <v>127.2070177768574</v>
       </c>
       <c r="Q15" t="n">
-        <v>85.0345226096205</v>
+        <v>85.03452260962052</v>
       </c>
       <c r="R15" t="n">
-        <v>41.36024952108947</v>
+        <v>41.36024952108949</v>
       </c>
       <c r="S15" t="n">
-        <v>12.37359824256949</v>
+        <v>12.3735982425695</v>
       </c>
       <c r="T15" t="n">
-        <v>2.685085427372224</v>
+        <v>2.685085427372225</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04382620392881761</v>
+        <v>0.04382620392881763</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5584847407759705</v>
+        <v>0.5584847407759708</v>
       </c>
       <c r="H16" t="n">
-        <v>4.965437058899087</v>
+        <v>4.96543705889909</v>
       </c>
       <c r="I16" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J16" t="n">
-        <v>39.48487117286112</v>
+        <v>39.48487117286113</v>
       </c>
       <c r="K16" t="n">
-        <v>64.88577261015365</v>
+        <v>64.88577261015368</v>
       </c>
       <c r="L16" t="n">
-        <v>83.03144955136568</v>
+        <v>83.03144955136571</v>
       </c>
       <c r="M16" t="n">
-        <v>87.5450216836369</v>
+        <v>87.54502168363693</v>
       </c>
       <c r="N16" t="n">
-        <v>85.46339674074473</v>
+        <v>85.46339674074476</v>
       </c>
       <c r="O16" t="n">
-        <v>78.93927954167994</v>
+        <v>78.93927954167997</v>
       </c>
       <c r="P16" t="n">
-        <v>67.54619082985009</v>
+        <v>67.54619082985012</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.76548133897696</v>
+        <v>46.76548133897698</v>
       </c>
       <c r="R16" t="n">
-        <v>25.11150479889045</v>
+        <v>25.11150479889046</v>
       </c>
       <c r="S16" t="n">
-        <v>9.732865891523048</v>
+        <v>9.732865891523051</v>
       </c>
       <c r="T16" t="n">
-        <v>2.38625298331551</v>
+        <v>2.386252983315511</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0304628040423257</v>
+        <v>0.03046280404232572</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.245045927358033</v>
+        <v>1.245045927358034</v>
       </c>
       <c r="H17" t="n">
-        <v>12.75082660355546</v>
+        <v>12.75082660355547</v>
       </c>
       <c r="I17" t="n">
-        <v>47.99963311447062</v>
+        <v>47.99963311447064</v>
       </c>
       <c r="J17" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K17" t="n">
-        <v>158.3745108821695</v>
+        <v>158.3745108821696</v>
       </c>
       <c r="L17" t="n">
-        <v>196.477585181553</v>
+        <v>196.4775851815531</v>
       </c>
       <c r="M17" t="n">
-        <v>218.6191706922064</v>
+        <v>218.6191706922065</v>
       </c>
       <c r="N17" t="n">
-        <v>222.1566574333124</v>
+        <v>222.1566574333125</v>
       </c>
       <c r="O17" t="n">
         <v>209.776231993146</v>
       </c>
       <c r="P17" t="n">
-        <v>179.0391606614945</v>
+        <v>179.0391606614946</v>
       </c>
       <c r="Q17" t="n">
-        <v>134.4509533879849</v>
+        <v>134.450953387985</v>
       </c>
       <c r="R17" t="n">
-        <v>78.20911623440412</v>
+        <v>78.20911623440415</v>
       </c>
       <c r="S17" t="n">
-        <v>28.37148406967121</v>
+        <v>28.37148406967122</v>
       </c>
       <c r="T17" t="n">
-        <v>5.450188547009793</v>
+        <v>5.450188547009795</v>
       </c>
       <c r="U17" t="n">
-        <v>0.09960367418864263</v>
+        <v>0.09960367418864267</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6661582997180274</v>
+        <v>0.6661582997180276</v>
       </c>
       <c r="H18" t="n">
-        <v>6.433686736750424</v>
+        <v>6.433686736750426</v>
       </c>
       <c r="I18" t="n">
-        <v>22.93571338941454</v>
+        <v>22.93571338941455</v>
       </c>
       <c r="J18" t="n">
-        <v>62.93735058871066</v>
+        <v>62.93735058871069</v>
       </c>
       <c r="K18" t="n">
         <v>107.5699566698185</v>
       </c>
       <c r="L18" t="n">
-        <v>144.641081699741</v>
+        <v>144.6410816997411</v>
       </c>
       <c r="M18" t="n">
         <v>168.7893200645195</v>
       </c>
       <c r="N18" t="n">
-        <v>173.2566711183303</v>
+        <v>173.2566711183304</v>
       </c>
       <c r="O18" t="n">
-        <v>158.4960056351045</v>
+        <v>158.4960056351046</v>
       </c>
       <c r="P18" t="n">
         <v>127.2070177768574</v>
       </c>
       <c r="Q18" t="n">
-        <v>85.0345226096205</v>
+        <v>85.03452260962052</v>
       </c>
       <c r="R18" t="n">
-        <v>41.36024952108947</v>
+        <v>41.36024952108949</v>
       </c>
       <c r="S18" t="n">
-        <v>12.37359824256949</v>
+        <v>12.3735982425695</v>
       </c>
       <c r="T18" t="n">
-        <v>2.685085427372224</v>
+        <v>2.685085427372225</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04382620392881761</v>
+        <v>0.04382620392881763</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5584847407759705</v>
+        <v>0.5584847407759708</v>
       </c>
       <c r="H19" t="n">
-        <v>4.965437058899087</v>
+        <v>4.96543705889909</v>
       </c>
       <c r="I19" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J19" t="n">
-        <v>39.48487117286112</v>
+        <v>39.48487117286113</v>
       </c>
       <c r="K19" t="n">
-        <v>64.88577261015365</v>
+        <v>64.88577261015368</v>
       </c>
       <c r="L19" t="n">
-        <v>83.03144955136568</v>
+        <v>83.03144955136571</v>
       </c>
       <c r="M19" t="n">
-        <v>87.5450216836369</v>
+        <v>87.54502168363693</v>
       </c>
       <c r="N19" t="n">
-        <v>85.46339674074473</v>
+        <v>85.46339674074476</v>
       </c>
       <c r="O19" t="n">
-        <v>78.93927954167994</v>
+        <v>78.93927954167997</v>
       </c>
       <c r="P19" t="n">
-        <v>67.54619082985009</v>
+        <v>67.54619082985012</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.76548133897696</v>
+        <v>46.76548133897698</v>
       </c>
       <c r="R19" t="n">
-        <v>25.11150479889045</v>
+        <v>25.11150479889046</v>
       </c>
       <c r="S19" t="n">
-        <v>9.732865891523048</v>
+        <v>9.732865891523051</v>
       </c>
       <c r="T19" t="n">
-        <v>2.38625298331551</v>
+        <v>2.386252983315511</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0304628040423257</v>
+        <v>0.03046280404232572</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32706,13 +32706,13 @@
         <v>12.75082660355546</v>
       </c>
       <c r="I23" t="n">
-        <v>47.99963311447062</v>
+        <v>47.99963311447063</v>
       </c>
       <c r="J23" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K23" t="n">
-        <v>158.3745108821695</v>
+        <v>158.3745108821696</v>
       </c>
       <c r="L23" t="n">
         <v>196.477585181553</v>
@@ -32721,7 +32721,7 @@
         <v>218.6191706922064</v>
       </c>
       <c r="N23" t="n">
-        <v>222.1566574333124</v>
+        <v>222.1566574333125</v>
       </c>
       <c r="O23" t="n">
         <v>209.776231993146</v>
@@ -32733,16 +32733,16 @@
         <v>134.4509533879849</v>
       </c>
       <c r="R23" t="n">
-        <v>78.20911623440412</v>
+        <v>78.20911623440414</v>
       </c>
       <c r="S23" t="n">
-        <v>28.37148406967121</v>
+        <v>28.37148406967122</v>
       </c>
       <c r="T23" t="n">
-        <v>5.450188547009793</v>
+        <v>5.450188547009794</v>
       </c>
       <c r="U23" t="n">
-        <v>0.09960367418864263</v>
+        <v>0.09960367418864266</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6661582997180274</v>
+        <v>0.6661582997180275</v>
       </c>
       <c r="H24" t="n">
-        <v>6.433686736750424</v>
+        <v>6.433686736750425</v>
       </c>
       <c r="I24" t="n">
-        <v>22.93571338941454</v>
+        <v>22.93571338941455</v>
       </c>
       <c r="J24" t="n">
-        <v>62.93735058871066</v>
+        <v>62.93735058871067</v>
       </c>
       <c r="K24" t="n">
         <v>107.5699566698185</v>
       </c>
       <c r="L24" t="n">
-        <v>144.641081699741</v>
+        <v>144.6410816997411</v>
       </c>
       <c r="M24" t="n">
         <v>168.7893200645195</v>
@@ -32803,16 +32803,16 @@
         <v>173.2566711183303</v>
       </c>
       <c r="O24" t="n">
-        <v>158.4960056351045</v>
+        <v>158.4960056351046</v>
       </c>
       <c r="P24" t="n">
         <v>127.2070177768574</v>
       </c>
       <c r="Q24" t="n">
-        <v>85.0345226096205</v>
+        <v>85.03452260962051</v>
       </c>
       <c r="R24" t="n">
-        <v>41.36024952108947</v>
+        <v>41.36024952108948</v>
       </c>
       <c r="S24" t="n">
         <v>12.37359824256949</v>
@@ -32821,7 +32821,7 @@
         <v>2.685085427372224</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04382620392881761</v>
+        <v>0.04382620392881762</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5584847407759705</v>
+        <v>0.5584847407759707</v>
       </c>
       <c r="H25" t="n">
-        <v>4.965437058899087</v>
+        <v>4.965437058899089</v>
       </c>
       <c r="I25" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J25" t="n">
-        <v>39.48487117286112</v>
+        <v>39.48487117286113</v>
       </c>
       <c r="K25" t="n">
-        <v>64.88577261015365</v>
+        <v>64.88577261015367</v>
       </c>
       <c r="L25" t="n">
-        <v>83.03144955136568</v>
+        <v>83.0314495513657</v>
       </c>
       <c r="M25" t="n">
-        <v>87.5450216836369</v>
+        <v>87.54502168363692</v>
       </c>
       <c r="N25" t="n">
-        <v>85.46339674074473</v>
+        <v>85.46339674074474</v>
       </c>
       <c r="O25" t="n">
-        <v>78.93927954167994</v>
+        <v>78.93927954167995</v>
       </c>
       <c r="P25" t="n">
-        <v>67.54619082985009</v>
+        <v>67.5461908298501</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.76548133897696</v>
+        <v>46.76548133897697</v>
       </c>
       <c r="R25" t="n">
-        <v>25.11150479889045</v>
+        <v>25.11150479889046</v>
       </c>
       <c r="S25" t="n">
-        <v>9.732865891523048</v>
+        <v>9.732865891523049</v>
       </c>
       <c r="T25" t="n">
-        <v>2.38625298331551</v>
+        <v>2.386252983315511</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0304628040423257</v>
+        <v>0.03046280404232571</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,13 +32943,13 @@
         <v>12.75082660355546</v>
       </c>
       <c r="I26" t="n">
-        <v>47.99963311447062</v>
+        <v>47.99963311447063</v>
       </c>
       <c r="J26" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K26" t="n">
-        <v>158.3745108821695</v>
+        <v>158.3745108821696</v>
       </c>
       <c r="L26" t="n">
         <v>196.477585181553</v>
@@ -32958,7 +32958,7 @@
         <v>218.6191706922064</v>
       </c>
       <c r="N26" t="n">
-        <v>222.1566574333124</v>
+        <v>222.1566574333125</v>
       </c>
       <c r="O26" t="n">
         <v>209.776231993146</v>
@@ -32970,16 +32970,16 @@
         <v>134.4509533879849</v>
       </c>
       <c r="R26" t="n">
-        <v>78.20911623440412</v>
+        <v>78.20911623440414</v>
       </c>
       <c r="S26" t="n">
-        <v>28.37148406967121</v>
+        <v>28.37148406967122</v>
       </c>
       <c r="T26" t="n">
-        <v>5.450188547009793</v>
+        <v>5.450188547009794</v>
       </c>
       <c r="U26" t="n">
-        <v>0.09960367418864263</v>
+        <v>0.09960367418864266</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6661582997180274</v>
+        <v>0.6661582997180275</v>
       </c>
       <c r="H27" t="n">
-        <v>6.433686736750424</v>
+        <v>6.433686736750425</v>
       </c>
       <c r="I27" t="n">
-        <v>22.93571338941454</v>
+        <v>22.93571338941455</v>
       </c>
       <c r="J27" t="n">
-        <v>62.93735058871066</v>
+        <v>62.93735058871067</v>
       </c>
       <c r="K27" t="n">
         <v>107.5699566698185</v>
       </c>
       <c r="L27" t="n">
-        <v>144.641081699741</v>
+        <v>144.6410816997411</v>
       </c>
       <c r="M27" t="n">
         <v>168.7893200645195</v>
@@ -33040,16 +33040,16 @@
         <v>173.2566711183303</v>
       </c>
       <c r="O27" t="n">
-        <v>158.4960056351045</v>
+        <v>158.4960056351046</v>
       </c>
       <c r="P27" t="n">
         <v>127.2070177768574</v>
       </c>
       <c r="Q27" t="n">
-        <v>85.0345226096205</v>
+        <v>85.03452260962051</v>
       </c>
       <c r="R27" t="n">
-        <v>41.36024952108947</v>
+        <v>41.36024952108948</v>
       </c>
       <c r="S27" t="n">
         <v>12.37359824256949</v>
@@ -33058,7 +33058,7 @@
         <v>2.685085427372224</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04382620392881761</v>
+        <v>0.04382620392881762</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5584847407759705</v>
+        <v>0.5584847407759707</v>
       </c>
       <c r="H28" t="n">
-        <v>4.965437058899087</v>
+        <v>4.965437058899089</v>
       </c>
       <c r="I28" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J28" t="n">
-        <v>39.48487117286112</v>
+        <v>39.48487117286113</v>
       </c>
       <c r="K28" t="n">
-        <v>64.88577261015365</v>
+        <v>64.88577261015367</v>
       </c>
       <c r="L28" t="n">
-        <v>83.03144955136568</v>
+        <v>83.0314495513657</v>
       </c>
       <c r="M28" t="n">
-        <v>87.5450216836369</v>
+        <v>87.54502168363692</v>
       </c>
       <c r="N28" t="n">
-        <v>85.46339674074473</v>
+        <v>85.46339674074474</v>
       </c>
       <c r="O28" t="n">
-        <v>78.93927954167994</v>
+        <v>78.93927954167995</v>
       </c>
       <c r="P28" t="n">
-        <v>67.54619082985009</v>
+        <v>67.5461908298501</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.76548133897696</v>
+        <v>46.76548133897697</v>
       </c>
       <c r="R28" t="n">
-        <v>25.11150479889045</v>
+        <v>25.11150479889046</v>
       </c>
       <c r="S28" t="n">
-        <v>9.732865891523048</v>
+        <v>9.732865891523049</v>
       </c>
       <c r="T28" t="n">
-        <v>2.38625298331551</v>
+        <v>2.386252983315511</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0304628040423257</v>
+        <v>0.03046280404232571</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,13 +33180,13 @@
         <v>12.75082660355546</v>
       </c>
       <c r="I29" t="n">
-        <v>47.99963311447062</v>
+        <v>47.99963311447063</v>
       </c>
       <c r="J29" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K29" t="n">
-        <v>158.3745108821695</v>
+        <v>158.3745108821696</v>
       </c>
       <c r="L29" t="n">
         <v>196.477585181553</v>
@@ -33195,7 +33195,7 @@
         <v>218.6191706922064</v>
       </c>
       <c r="N29" t="n">
-        <v>222.1566574333124</v>
+        <v>222.1566574333125</v>
       </c>
       <c r="O29" t="n">
         <v>209.776231993146</v>
@@ -33207,16 +33207,16 @@
         <v>134.4509533879849</v>
       </c>
       <c r="R29" t="n">
-        <v>78.20911623440412</v>
+        <v>78.20911623440414</v>
       </c>
       <c r="S29" t="n">
-        <v>28.37148406967121</v>
+        <v>28.37148406967122</v>
       </c>
       <c r="T29" t="n">
-        <v>5.450188547009793</v>
+        <v>5.450188547009794</v>
       </c>
       <c r="U29" t="n">
-        <v>0.09960367418864263</v>
+        <v>0.09960367418864266</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6661582997180274</v>
+        <v>0.6661582997180275</v>
       </c>
       <c r="H30" t="n">
-        <v>6.433686736750424</v>
+        <v>6.433686736750425</v>
       </c>
       <c r="I30" t="n">
-        <v>22.93571338941454</v>
+        <v>22.93571338941455</v>
       </c>
       <c r="J30" t="n">
-        <v>62.93735058871066</v>
+        <v>62.93735058871067</v>
       </c>
       <c r="K30" t="n">
         <v>107.5699566698185</v>
       </c>
       <c r="L30" t="n">
-        <v>144.641081699741</v>
+        <v>144.6410816997411</v>
       </c>
       <c r="M30" t="n">
         <v>168.7893200645195</v>
@@ -33277,16 +33277,16 @@
         <v>173.2566711183303</v>
       </c>
       <c r="O30" t="n">
-        <v>158.4960056351045</v>
+        <v>158.4960056351046</v>
       </c>
       <c r="P30" t="n">
         <v>127.2070177768574</v>
       </c>
       <c r="Q30" t="n">
-        <v>85.0345226096205</v>
+        <v>85.03452260962051</v>
       </c>
       <c r="R30" t="n">
-        <v>41.36024952108947</v>
+        <v>41.36024952108948</v>
       </c>
       <c r="S30" t="n">
         <v>12.37359824256949</v>
@@ -33295,7 +33295,7 @@
         <v>2.685085427372224</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04382620392881761</v>
+        <v>0.04382620392881762</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5584847407759705</v>
+        <v>0.5584847407759707</v>
       </c>
       <c r="H31" t="n">
-        <v>4.965437058899087</v>
+        <v>4.965437058899089</v>
       </c>
       <c r="I31" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J31" t="n">
-        <v>39.48487117286112</v>
+        <v>39.48487117286113</v>
       </c>
       <c r="K31" t="n">
-        <v>64.88577261015365</v>
+        <v>64.88577261015367</v>
       </c>
       <c r="L31" t="n">
-        <v>83.03144955136568</v>
+        <v>83.0314495513657</v>
       </c>
       <c r="M31" t="n">
-        <v>87.5450216836369</v>
+        <v>87.54502168363692</v>
       </c>
       <c r="N31" t="n">
-        <v>85.46339674074473</v>
+        <v>85.46339674074474</v>
       </c>
       <c r="O31" t="n">
-        <v>78.93927954167994</v>
+        <v>78.93927954167995</v>
       </c>
       <c r="P31" t="n">
-        <v>67.54619082985009</v>
+        <v>67.5461908298501</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.76548133897696</v>
+        <v>46.76548133897697</v>
       </c>
       <c r="R31" t="n">
-        <v>25.11150479889045</v>
+        <v>25.11150479889046</v>
       </c>
       <c r="S31" t="n">
-        <v>9.732865891523048</v>
+        <v>9.732865891523049</v>
       </c>
       <c r="T31" t="n">
-        <v>2.38625298331551</v>
+        <v>2.386252983315511</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0304628040423257</v>
+        <v>0.03046280404232571</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,13 +33417,13 @@
         <v>12.75082660355546</v>
       </c>
       <c r="I32" t="n">
-        <v>47.99963311447062</v>
+        <v>47.99963311447063</v>
       </c>
       <c r="J32" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K32" t="n">
-        <v>158.3745108821695</v>
+        <v>158.3745108821696</v>
       </c>
       <c r="L32" t="n">
         <v>196.477585181553</v>
@@ -33432,7 +33432,7 @@
         <v>218.6191706922064</v>
       </c>
       <c r="N32" t="n">
-        <v>222.1566574333124</v>
+        <v>222.1566574333125</v>
       </c>
       <c r="O32" t="n">
         <v>209.776231993146</v>
@@ -33444,16 +33444,16 @@
         <v>134.4509533879849</v>
       </c>
       <c r="R32" t="n">
-        <v>78.20911623440412</v>
+        <v>78.20911623440414</v>
       </c>
       <c r="S32" t="n">
-        <v>28.37148406967121</v>
+        <v>28.37148406967122</v>
       </c>
       <c r="T32" t="n">
-        <v>5.450188547009793</v>
+        <v>5.450188547009794</v>
       </c>
       <c r="U32" t="n">
-        <v>0.09960367418864263</v>
+        <v>0.09960367418864266</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6661582997180274</v>
+        <v>0.6661582997180275</v>
       </c>
       <c r="H33" t="n">
-        <v>6.433686736750424</v>
+        <v>6.433686736750425</v>
       </c>
       <c r="I33" t="n">
-        <v>22.93571338941454</v>
+        <v>22.93571338941455</v>
       </c>
       <c r="J33" t="n">
-        <v>62.93735058871066</v>
+        <v>62.93735058871067</v>
       </c>
       <c r="K33" t="n">
         <v>107.5699566698185</v>
       </c>
       <c r="L33" t="n">
-        <v>144.641081699741</v>
+        <v>144.6410816997411</v>
       </c>
       <c r="M33" t="n">
         <v>168.7893200645195</v>
@@ -33514,16 +33514,16 @@
         <v>173.2566711183303</v>
       </c>
       <c r="O33" t="n">
-        <v>158.4960056351045</v>
+        <v>158.4960056351046</v>
       </c>
       <c r="P33" t="n">
         <v>127.2070177768574</v>
       </c>
       <c r="Q33" t="n">
-        <v>85.0345226096205</v>
+        <v>85.03452260962051</v>
       </c>
       <c r="R33" t="n">
-        <v>41.36024952108947</v>
+        <v>41.36024952108948</v>
       </c>
       <c r="S33" t="n">
         <v>12.37359824256949</v>
@@ -33532,7 +33532,7 @@
         <v>2.685085427372224</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04382620392881761</v>
+        <v>0.04382620392881762</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5584847407759705</v>
+        <v>0.5584847407759707</v>
       </c>
       <c r="H34" t="n">
-        <v>4.965437058899087</v>
+        <v>4.965437058899089</v>
       </c>
       <c r="I34" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J34" t="n">
-        <v>39.48487117286112</v>
+        <v>39.48487117286113</v>
       </c>
       <c r="K34" t="n">
-        <v>64.88577261015365</v>
+        <v>64.88577261015367</v>
       </c>
       <c r="L34" t="n">
-        <v>83.03144955136568</v>
+        <v>83.0314495513657</v>
       </c>
       <c r="M34" t="n">
-        <v>87.5450216836369</v>
+        <v>87.54502168363692</v>
       </c>
       <c r="N34" t="n">
-        <v>85.46339674074473</v>
+        <v>85.46339674074474</v>
       </c>
       <c r="O34" t="n">
-        <v>78.93927954167994</v>
+        <v>78.93927954167995</v>
       </c>
       <c r="P34" t="n">
-        <v>67.54619082985009</v>
+        <v>67.5461908298501</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.76548133897696</v>
+        <v>46.76548133897697</v>
       </c>
       <c r="R34" t="n">
-        <v>25.11150479889045</v>
+        <v>25.11150479889046</v>
       </c>
       <c r="S34" t="n">
-        <v>9.732865891523048</v>
+        <v>9.732865891523049</v>
       </c>
       <c r="T34" t="n">
-        <v>2.38625298331551</v>
+        <v>2.386252983315511</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0304628040423257</v>
+        <v>0.03046280404232571</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,13 +33654,13 @@
         <v>12.75082660355546</v>
       </c>
       <c r="I35" t="n">
-        <v>47.99963311447062</v>
+        <v>47.99963311447063</v>
       </c>
       <c r="J35" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K35" t="n">
-        <v>158.3745108821695</v>
+        <v>158.3745108821696</v>
       </c>
       <c r="L35" t="n">
         <v>196.477585181553</v>
@@ -33669,7 +33669,7 @@
         <v>218.6191706922064</v>
       </c>
       <c r="N35" t="n">
-        <v>222.1566574333124</v>
+        <v>222.1566574333125</v>
       </c>
       <c r="O35" t="n">
         <v>209.776231993146</v>
@@ -33681,16 +33681,16 @@
         <v>134.4509533879849</v>
       </c>
       <c r="R35" t="n">
-        <v>78.20911623440412</v>
+        <v>78.20911623440414</v>
       </c>
       <c r="S35" t="n">
-        <v>28.37148406967121</v>
+        <v>28.37148406967122</v>
       </c>
       <c r="T35" t="n">
-        <v>5.450188547009793</v>
+        <v>5.450188547009794</v>
       </c>
       <c r="U35" t="n">
-        <v>0.09960367418864263</v>
+        <v>0.09960367418864266</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6661582997180274</v>
+        <v>0.6661582997180275</v>
       </c>
       <c r="H36" t="n">
-        <v>6.433686736750424</v>
+        <v>6.433686736750425</v>
       </c>
       <c r="I36" t="n">
-        <v>22.93571338941454</v>
+        <v>22.93571338941455</v>
       </c>
       <c r="J36" t="n">
-        <v>62.93735058871066</v>
+        <v>62.93735058871067</v>
       </c>
       <c r="K36" t="n">
         <v>107.5699566698185</v>
       </c>
       <c r="L36" t="n">
-        <v>144.641081699741</v>
+        <v>144.6410816997411</v>
       </c>
       <c r="M36" t="n">
         <v>168.7893200645195</v>
@@ -33751,16 +33751,16 @@
         <v>173.2566711183303</v>
       </c>
       <c r="O36" t="n">
-        <v>158.4960056351045</v>
+        <v>158.4960056351046</v>
       </c>
       <c r="P36" t="n">
         <v>127.2070177768574</v>
       </c>
       <c r="Q36" t="n">
-        <v>85.0345226096205</v>
+        <v>85.03452260962051</v>
       </c>
       <c r="R36" t="n">
-        <v>41.36024952108947</v>
+        <v>41.36024952108948</v>
       </c>
       <c r="S36" t="n">
         <v>12.37359824256949</v>
@@ -33769,7 +33769,7 @@
         <v>2.685085427372224</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04382620392881761</v>
+        <v>0.04382620392881762</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5584847407759705</v>
+        <v>0.5584847407759707</v>
       </c>
       <c r="H37" t="n">
-        <v>4.965437058899087</v>
+        <v>4.965437058899089</v>
       </c>
       <c r="I37" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J37" t="n">
-        <v>39.48487117286112</v>
+        <v>39.48487117286113</v>
       </c>
       <c r="K37" t="n">
-        <v>64.88577261015365</v>
+        <v>64.88577261015367</v>
       </c>
       <c r="L37" t="n">
-        <v>83.03144955136568</v>
+        <v>83.0314495513657</v>
       </c>
       <c r="M37" t="n">
-        <v>87.5450216836369</v>
+        <v>87.54502168363692</v>
       </c>
       <c r="N37" t="n">
-        <v>85.46339674074473</v>
+        <v>85.46339674074474</v>
       </c>
       <c r="O37" t="n">
-        <v>78.93927954167994</v>
+        <v>78.93927954167995</v>
       </c>
       <c r="P37" t="n">
-        <v>67.54619082985009</v>
+        <v>67.5461908298501</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.76548133897696</v>
+        <v>46.76548133897697</v>
       </c>
       <c r="R37" t="n">
-        <v>25.11150479889045</v>
+        <v>25.11150479889046</v>
       </c>
       <c r="S37" t="n">
-        <v>9.732865891523048</v>
+        <v>9.732865891523049</v>
       </c>
       <c r="T37" t="n">
-        <v>2.38625298331551</v>
+        <v>2.386252983315511</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0304628040423257</v>
+        <v>0.03046280404232571</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34707,7 +34707,7 @@
         <v>204.4954085367308</v>
       </c>
       <c r="M2" t="n">
-        <v>242.9064974359549</v>
+        <v>242.9064974359548</v>
       </c>
       <c r="N2" t="n">
         <v>231.1630643817873</v>
@@ -34780,13 +34780,13 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L3" t="n">
-        <v>250.5834388302202</v>
+        <v>106.7946247341192</v>
       </c>
       <c r="M3" t="n">
-        <v>271.1434367385833</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N3" t="n">
         <v>274.2838073416025</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M6" t="n">
-        <v>134.1933268726387</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O6" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P6" t="n">
-        <v>200.5762321565626</v>
+        <v>16.31652810451531</v>
       </c>
       <c r="Q6" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M9" t="n">
-        <v>274.2838073416025</v>
+        <v>90.02410328955504</v>
       </c>
       <c r="N9" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P9" t="n">
-        <v>197.4358615535434</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q9" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>70.40534134273582</v>
+        <v>51.3956407860353</v>
       </c>
       <c r="K12" t="n">
         <v>248.2184001629003</v>
@@ -35500,16 +35500,16 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N12" t="n">
-        <v>357.6721984766432</v>
+        <v>543.714571154376</v>
       </c>
       <c r="O12" t="n">
         <v>429.0814793495699</v>
       </c>
       <c r="P12" t="n">
-        <v>327.78324993342</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q12" t="n">
-        <v>167.0326721210326</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>50.1113628923203</v>
+        <v>50.11136289232032</v>
       </c>
       <c r="L13" t="n">
         <v>120.492579780375</v>
@@ -35585,7 +35585,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P13" t="n">
-        <v>73.66821272853393</v>
+        <v>73.66821272853394</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35655,19 +35655,19 @@
         <v>400.9729937182839</v>
       </c>
       <c r="M14" t="n">
-        <v>461.5256681281613</v>
+        <v>461.5256681281614</v>
       </c>
       <c r="N14" t="n">
-        <v>453.3197218150998</v>
+        <v>453.3197218150999</v>
       </c>
       <c r="O14" t="n">
-        <v>381.4626643702566</v>
+        <v>381.4626643702567</v>
       </c>
       <c r="P14" t="n">
         <v>288.2576462984487</v>
       </c>
       <c r="Q14" t="n">
-        <v>138.5104960466975</v>
+        <v>138.5104960466976</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,10 +35728,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>248.2184001629003</v>
+        <v>132.5813688279027</v>
       </c>
       <c r="L15" t="n">
-        <v>395.2245205299612</v>
+        <v>395.2245205299613</v>
       </c>
       <c r="M15" t="n">
         <v>514.5419032905515</v>
@@ -35743,10 +35743,10 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P15" t="n">
-        <v>327.78324993342</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q15" t="n">
-        <v>51.39564078603548</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>50.1113628923203</v>
+        <v>50.11136289232033</v>
       </c>
       <c r="L16" t="n">
         <v>120.492579780375</v>
@@ -35822,7 +35822,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P16" t="n">
-        <v>73.66821272853393</v>
+        <v>73.66821272853396</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35892,19 +35892,19 @@
         <v>400.9729937182839</v>
       </c>
       <c r="M17" t="n">
-        <v>461.5256681281613</v>
+        <v>461.5256681281614</v>
       </c>
       <c r="N17" t="n">
-        <v>453.3197218150998</v>
+        <v>453.3197218150999</v>
       </c>
       <c r="O17" t="n">
-        <v>381.4626643702566</v>
+        <v>381.4626643702567</v>
       </c>
       <c r="P17" t="n">
         <v>288.2576462984487</v>
       </c>
       <c r="Q17" t="n">
-        <v>138.5104960466975</v>
+        <v>138.5104960466976</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>70.40534134273582</v>
+        <v>70.40534134273584</v>
       </c>
       <c r="K18" t="n">
-        <v>248.2184001629003</v>
+        <v>62.17602748516684</v>
       </c>
       <c r="L18" t="n">
-        <v>395.2245205299612</v>
+        <v>395.2245205299613</v>
       </c>
       <c r="M18" t="n">
         <v>514.5419032905515</v>
@@ -35977,10 +35977,10 @@
         <v>543.714571154376</v>
       </c>
       <c r="O18" t="n">
-        <v>243.0391066718371</v>
+        <v>429.0814793495699</v>
       </c>
       <c r="P18" t="n">
-        <v>327.78324993342</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q18" t="n">
         <v>167.0326721210326</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>50.1113628923203</v>
+        <v>50.11136289232033</v>
       </c>
       <c r="L19" t="n">
         <v>120.492579780375</v>
@@ -36059,7 +36059,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P19" t="n">
-        <v>73.66821272853393</v>
+        <v>73.66821272853396</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K21" t="n">
-        <v>248.2184001629003</v>
+        <v>62.17602748516736</v>
       </c>
       <c r="L21" t="n">
         <v>395.2245205299612</v>
       </c>
       <c r="M21" t="n">
-        <v>398.9048719555545</v>
+        <v>514.5419032905515</v>
       </c>
       <c r="N21" t="n">
         <v>543.714571154376</v>
@@ -36442,7 +36442,7 @@
         <v>248.2184001629003</v>
       </c>
       <c r="L24" t="n">
-        <v>395.2245205299612</v>
+        <v>376.2148199732607</v>
       </c>
       <c r="M24" t="n">
         <v>514.5419032905515</v>
@@ -36451,13 +36451,13 @@
         <v>543.714571154376</v>
       </c>
       <c r="O24" t="n">
-        <v>243.0391066718371</v>
+        <v>429.0814793495699</v>
       </c>
       <c r="P24" t="n">
-        <v>327.78324993342</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q24" t="n">
-        <v>167.0326721210326</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>50.1113628923203</v>
+        <v>50.11136289232032</v>
       </c>
       <c r="L25" t="n">
         <v>120.492579780375</v>
@@ -36533,7 +36533,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P25" t="n">
-        <v>73.66821272853393</v>
+        <v>73.66821272853394</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>70.40534134273582</v>
+        <v>51.3956407860353</v>
       </c>
       <c r="K27" t="n">
         <v>248.2184001629003</v>
       </c>
       <c r="L27" t="n">
-        <v>209.1821478522283</v>
+        <v>395.2245205299612</v>
       </c>
       <c r="M27" t="n">
         <v>514.5419032905515</v>
@@ -36691,10 +36691,10 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P27" t="n">
-        <v>327.78324993342</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q27" t="n">
-        <v>167.0326721210326</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>50.1113628923203</v>
+        <v>50.11136289232032</v>
       </c>
       <c r="L28" t="n">
         <v>120.492579780375</v>
@@ -36770,7 +36770,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P28" t="n">
-        <v>73.66821272853393</v>
+        <v>73.66821272853394</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>248.2184001629003</v>
       </c>
       <c r="L30" t="n">
-        <v>209.1821478522283</v>
+        <v>395.2245205299612</v>
       </c>
       <c r="M30" t="n">
         <v>514.5419032905515</v>
@@ -36928,10 +36928,10 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P30" t="n">
-        <v>327.78324993342</v>
+        <v>308.7735493767197</v>
       </c>
       <c r="Q30" t="n">
-        <v>167.0326721210326</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>50.1113628923203</v>
+        <v>50.11136289232032</v>
       </c>
       <c r="L31" t="n">
         <v>120.492579780375</v>
@@ -37007,7 +37007,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P31" t="n">
-        <v>73.66821272853393</v>
+        <v>73.66821272853394</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>70.40534134273582</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>248.2184001629003</v>
@@ -37162,13 +37162,13 @@
         <v>543.714571154376</v>
       </c>
       <c r="O33" t="n">
-        <v>243.0391066718366</v>
+        <v>429.0814793495699</v>
       </c>
       <c r="P33" t="n">
-        <v>327.78324993342</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q33" t="n">
-        <v>167.0326721210326</v>
+        <v>51.39564078603548</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>50.1113628923203</v>
+        <v>50.11136289232032</v>
       </c>
       <c r="L34" t="n">
         <v>120.492579780375</v>
@@ -37244,7 +37244,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P34" t="n">
-        <v>73.66821272853393</v>
+        <v>73.66821272853394</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>70.40534134273582</v>
       </c>
       <c r="K36" t="n">
-        <v>62.17602748516742</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L36" t="n">
         <v>395.2245205299612</v>
@@ -37402,7 +37402,7 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P36" t="n">
-        <v>327.78324993342</v>
+        <v>141.7408772556873</v>
       </c>
       <c r="Q36" t="n">
         <v>167.0326721210326</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>50.1113628923203</v>
+        <v>50.11136289232032</v>
       </c>
       <c r="L37" t="n">
         <v>120.492579780375</v>
@@ -37481,7 +37481,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P37" t="n">
-        <v>73.66821272853393</v>
+        <v>73.66821272853394</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>70.40534134273582</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>248.2184001629003</v>
@@ -37636,10 +37636,10 @@
         <v>543.714571154376</v>
       </c>
       <c r="O39" t="n">
-        <v>243.0391066718371</v>
+        <v>429.0814793495699</v>
       </c>
       <c r="P39" t="n">
-        <v>327.7832499334201</v>
+        <v>212.146218598423</v>
       </c>
       <c r="Q39" t="n">
         <v>167.0326721210326</v>
@@ -37794,7 +37794,7 @@
         <v>453.3197218150998</v>
       </c>
       <c r="O41" t="n">
-        <v>381.4626643702564</v>
+        <v>381.4626643702566</v>
       </c>
       <c r="P41" t="n">
         <v>288.2576462984487</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>70.40534134273582</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>248.2184001629003</v>
@@ -37867,13 +37867,13 @@
         <v>395.2245205299612</v>
       </c>
       <c r="M42" t="n">
-        <v>514.5419032905515</v>
+        <v>398.9048719555545</v>
       </c>
       <c r="N42" t="n">
         <v>543.714571154376</v>
       </c>
       <c r="O42" t="n">
-        <v>243.0391066718371</v>
+        <v>429.0814793495699</v>
       </c>
       <c r="P42" t="n">
         <v>327.7832499334201</v>
@@ -38037,7 +38037,7 @@
         <v>288.2576462984487</v>
       </c>
       <c r="Q44" t="n">
-        <v>138.5104960466975</v>
+        <v>138.5104960466976</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>70.40534134273582</v>
       </c>
       <c r="K45" t="n">
-        <v>62.17602748516736</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L45" t="n">
         <v>395.2245205299612</v>
       </c>
       <c r="M45" t="n">
-        <v>514.5419032905515</v>
+        <v>328.4995306128187</v>
       </c>
       <c r="N45" t="n">
         <v>543.714571154376</v>
